--- a/FR 1005-Monitoring NC & Action Plan-V001.xlsx
+++ b/FR 1005-Monitoring NC & Action Plan-V001.xlsx
@@ -103,7 +103,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="1" quotePrefix="0" xfId="0"/>
@@ -119,12 +119,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -133,9 +135,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -645,7 +644,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
@@ -707,7 +706,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
@@ -745,7 +744,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t/>
+            <a:t>None</a:t>
           </a:r>
           <a:endParaRPr lang="fr-FR"/>
         </a:p>
@@ -853,7 +852,7 @@
                 </a:defRPr>
               </a:pPr>
               <a:r>
-                <a:t/>
+                <a:t>None</a:t>
               </a:r>
               <a:endParaRPr lang="fr-FR"/>
             </a:p>
@@ -914,7 +913,7 @@
                 </a:defRPr>
               </a:pPr>
               <a:r>
-                <a:t/>
+                <a:t>None</a:t>
               </a:r>
               <a:endParaRPr lang="fr-FR"/>
             </a:p>
@@ -975,7 +974,7 @@
                 </a:defRPr>
               </a:pPr>
               <a:r>
-                <a:t/>
+                <a:t>None</a:t>
               </a:r>
               <a:endParaRPr lang="fr-FR"/>
             </a:p>
@@ -1047,7 +1046,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
                 <a:endParaRPr lang="fr-FR"/>
               </a:p>
@@ -1145,7 +1144,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
                 <a:endParaRPr lang="fr-FR"/>
               </a:p>
@@ -1246,7 +1245,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
@@ -1308,7 +1307,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
@@ -1346,7 +1345,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t/>
+            <a:t>None</a:t>
           </a:r>
           <a:endParaRPr lang="fr-FR"/>
         </a:p>
@@ -1414,7 +1413,7 @@
                 </a:defRPr>
               </a:pPr>
               <a:r>
-                <a:t/>
+                <a:t>None</a:t>
               </a:r>
               <a:endParaRPr lang="fr-FR"/>
             </a:p>
@@ -1475,7 +1474,7 @@
                 </a:defRPr>
               </a:pPr>
               <a:r>
-                <a:t/>
+                <a:t>None</a:t>
               </a:r>
               <a:endParaRPr lang="fr-FR"/>
             </a:p>
@@ -1547,7 +1546,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
                 <a:endParaRPr lang="fr-FR"/>
               </a:p>
@@ -1642,7 +1641,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
                 <a:endParaRPr lang="fr-FR"/>
               </a:p>
@@ -1743,7 +1742,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
@@ -1805,7 +1804,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
@@ -1843,7 +1842,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t/>
+            <a:t>None</a:t>
           </a:r>
           <a:endParaRPr lang="fr-FR"/>
         </a:p>
@@ -2008,7 +2007,7 @@
                 <a:defRPr/>
               </a:pPr>
               <a:r>
-                <a:t/>
+                <a:t>None</a:t>
               </a:r>
               <a:endParaRPr lang="fr-FR"/>
             </a:p>
@@ -2047,7 +2046,7 @@
                 <a:defRPr/>
               </a:pPr>
               <a:r>
-                <a:t/>
+                <a:t>None</a:t>
               </a:r>
               <a:endParaRPr lang="fr-FR"/>
             </a:p>
@@ -2175,7 +2174,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
                 <a:endParaRPr lang="fr-FR"/>
               </a:p>
@@ -2272,7 +2271,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
@@ -2334,7 +2333,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
@@ -2434,7 +2433,7 @@
                 </a:defRPr>
               </a:pPr>
               <a:r>
-                <a:t/>
+                <a:t>None</a:t>
               </a:r>
               <a:endParaRPr lang="fr-FR"/>
             </a:p>
@@ -2531,7 +2530,7 @@
                 </a:defRPr>
               </a:pPr>
               <a:r>
-                <a:t/>
+                <a:t>None</a:t>
               </a:r>
               <a:endParaRPr lang="fr-FR"/>
             </a:p>
@@ -2683,7 +2682,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
                 <a:endParaRPr lang="fr-FR"/>
               </a:p>
@@ -2813,7 +2812,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
                 <a:endParaRPr lang="fr-FR"/>
               </a:p>
@@ -2908,7 +2907,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
@@ -2970,7 +2969,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
@@ -3008,7 +3007,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t/>
+            <a:t>None</a:t>
           </a:r>
           <a:endParaRPr lang="fr-FR"/>
         </a:p>
@@ -3104,7 +3103,7 @@
                 </a:defRPr>
               </a:pPr>
               <a:r>
-                <a:t/>
+                <a:t>None</a:t>
               </a:r>
               <a:endParaRPr lang="fr-FR"/>
             </a:p>
@@ -3201,7 +3200,7 @@
                 </a:defRPr>
               </a:pPr>
               <a:r>
-                <a:t/>
+                <a:t>None</a:t>
               </a:r>
               <a:endParaRPr lang="fr-FR"/>
             </a:p>
@@ -3290,7 +3289,7 @@
                 </a:defRPr>
               </a:pPr>
               <a:r>
-                <a:t/>
+                <a:t>None</a:t>
               </a:r>
               <a:endParaRPr lang="fr-FR"/>
             </a:p>
@@ -3379,7 +3378,7 @@
                 </a:defRPr>
               </a:pPr>
               <a:r>
-                <a:t/>
+                <a:t>None</a:t>
               </a:r>
               <a:endParaRPr lang="fr-FR"/>
             </a:p>
@@ -3595,7 +3594,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
                 <a:endParaRPr lang="fr-FR"/>
               </a:p>
@@ -3725,7 +3724,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
                 <a:endParaRPr lang="fr-FR"/>
               </a:p>
@@ -3855,7 +3854,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
                 <a:endParaRPr lang="fr-FR"/>
               </a:p>
@@ -3985,7 +3984,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
                 <a:endParaRPr lang="fr-FR"/>
               </a:p>
@@ -4080,7 +4079,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
@@ -4142,7 +4141,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
@@ -4180,7 +4179,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t/>
+            <a:t>None</a:t>
           </a:r>
           <a:endParaRPr lang="fr-FR"/>
         </a:p>
@@ -4267,7 +4266,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
                 <a:endParaRPr lang="fr-FR"/>
               </a:p>
@@ -4366,7 +4365,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
@@ -4428,7 +4427,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
@@ -4551,7 +4550,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
                 <a:endParaRPr lang="fr-FR"/>
               </a:p>
@@ -4647,7 +4646,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t/>
+            <a:t>None</a:t>
           </a:r>
           <a:endParaRPr lang="fr-FR"/>
         </a:p>
@@ -4848,7 +4847,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
                 <a:endParaRPr lang="fr-FR"/>
               </a:p>
@@ -4946,7 +4945,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t/>
+            <a:t>None</a:t>
           </a:r>
           <a:endParaRPr lang="fr-FR"/>
         </a:p>
@@ -6288,6 +6287,693 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique3" cacheId="0" dataOnRows="0" dataCaption="Valeurs" showError="0" showMissing="1" updatedVersion="7" minRefreshableVersion="3" asteriskTotals="0" showItems="1" editData="0" disableFieldList="0" showCalcMbrs="1" visualTotals="1" showMultipleLabel="1" showDataDropDown="1" showDrill="1" printDrill="0" showMemberPropertyTips="1" showDataTips="1" enableWizard="1" enableDrill="1" enableFieldProperties="1" preserveFormatting="1" useAutoFormatting="1" pageWrap="0" pageOverThenDown="0" subtotalHiddenItems="0" rowGrandTotals="1" colGrandTotals="1" fieldPrintTitles="0" itemPrintTitles="1" mergeItem="0" showDropZones="1" createdVersion="7" indent="0" showEmptyRow="0" showEmptyCol="0" showHeaders="1" compact="1" outline="1" outlineData="1" compactData="1" published="0" gridDropZones="0" immersive="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="0" mdxSubqueries="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" r:id="rId1">
+  <location ref="K13:N18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="17">
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1">
+      <items count="369">
+        <item t="data" sd="1" x="0"/>
+        <item t="data" sd="1" x="1"/>
+        <item t="data" sd="1" x="2"/>
+        <item t="data" sd="1" x="3"/>
+        <item t="data" sd="1" x="4"/>
+        <item t="data" sd="1" x="5"/>
+        <item t="data" sd="1" x="6"/>
+        <item t="data" sd="1" x="7"/>
+        <item t="data" sd="1" x="8"/>
+        <item t="data" sd="1" x="9"/>
+        <item t="data" sd="1" x="10"/>
+        <item t="data" sd="1" x="11"/>
+        <item t="data" sd="1" x="12"/>
+        <item t="data" sd="1" x="13"/>
+        <item t="data" sd="1" x="14"/>
+        <item t="data" sd="1" x="15"/>
+        <item t="data" sd="1" x="16"/>
+        <item t="data" sd="1" x="17"/>
+        <item t="data" sd="1" x="18"/>
+        <item t="data" sd="1" x="19"/>
+        <item t="data" sd="1" x="20"/>
+        <item t="data" sd="1" x="21"/>
+        <item t="data" sd="1" x="22"/>
+        <item t="data" sd="1" x="23"/>
+        <item t="data" sd="1" x="24"/>
+        <item t="data" sd="1" x="25"/>
+        <item t="data" sd="1" x="26"/>
+        <item t="data" sd="1" x="27"/>
+        <item t="data" sd="1" x="28"/>
+        <item t="data" sd="1" x="29"/>
+        <item t="data" sd="1" x="30"/>
+        <item t="data" sd="1" x="31"/>
+        <item t="data" sd="1" x="32"/>
+        <item t="data" sd="1" x="33"/>
+        <item t="data" sd="1" x="34"/>
+        <item t="data" sd="1" x="35"/>
+        <item t="data" sd="1" x="36"/>
+        <item t="data" sd="1" x="37"/>
+        <item t="data" sd="1" x="38"/>
+        <item t="data" sd="1" x="39"/>
+        <item t="data" sd="1" x="40"/>
+        <item t="data" sd="1" x="41"/>
+        <item t="data" sd="1" x="42"/>
+        <item t="data" sd="1" x="43"/>
+        <item t="data" sd="1" x="44"/>
+        <item t="data" sd="1" x="45"/>
+        <item t="data" sd="1" x="46"/>
+        <item t="data" sd="1" x="47"/>
+        <item t="data" sd="1" x="48"/>
+        <item t="data" sd="1" x="49"/>
+        <item t="data" sd="1" x="50"/>
+        <item t="data" sd="1" x="51"/>
+        <item t="data" sd="1" x="52"/>
+        <item t="data" sd="1" x="53"/>
+        <item t="data" sd="1" x="54"/>
+        <item t="data" sd="1" x="55"/>
+        <item t="data" sd="1" x="56"/>
+        <item t="data" sd="1" x="57"/>
+        <item t="data" sd="1" x="58"/>
+        <item t="data" sd="1" x="59"/>
+        <item t="data" sd="1" x="60"/>
+        <item t="data" sd="1" x="61"/>
+        <item t="data" sd="1" x="62"/>
+        <item t="data" sd="1" x="63"/>
+        <item t="data" sd="1" x="64"/>
+        <item t="data" sd="1" x="65"/>
+        <item t="data" sd="1" x="66"/>
+        <item t="data" sd="1" x="67"/>
+        <item t="data" sd="1" x="68"/>
+        <item t="data" sd="1" x="69"/>
+        <item t="data" sd="1" x="70"/>
+        <item t="data" sd="1" x="71"/>
+        <item t="data" sd="1" x="72"/>
+        <item t="data" sd="1" x="73"/>
+        <item t="data" sd="1" x="74"/>
+        <item t="data" sd="1" x="75"/>
+        <item t="data" sd="1" x="76"/>
+        <item t="data" sd="1" x="77"/>
+        <item t="data" sd="1" x="78"/>
+        <item t="data" sd="1" x="79"/>
+        <item t="data" sd="1" x="80"/>
+        <item t="data" sd="1" x="81"/>
+        <item t="data" sd="1" x="82"/>
+        <item t="data" sd="1" x="83"/>
+        <item t="data" sd="1" x="84"/>
+        <item t="data" sd="1" x="85"/>
+        <item t="data" sd="1" x="86"/>
+        <item t="data" sd="1" x="87"/>
+        <item t="data" sd="1" x="88"/>
+        <item t="data" sd="1" x="89"/>
+        <item t="data" sd="1" x="90"/>
+        <item t="data" sd="1" x="91"/>
+        <item t="data" sd="1" x="92"/>
+        <item t="data" sd="1" x="93"/>
+        <item t="data" sd="1" x="94"/>
+        <item t="data" sd="1" x="95"/>
+        <item t="data" sd="1" x="96"/>
+        <item t="data" sd="1" x="97"/>
+        <item t="data" sd="1" x="98"/>
+        <item t="data" sd="1" x="99"/>
+        <item t="data" sd="1" x="100"/>
+        <item t="data" sd="1" x="101"/>
+        <item t="data" sd="1" x="102"/>
+        <item t="data" sd="1" x="103"/>
+        <item t="data" sd="1" x="104"/>
+        <item t="data" sd="1" x="105"/>
+        <item t="data" sd="1" x="106"/>
+        <item t="data" sd="1" x="107"/>
+        <item t="data" sd="1" x="108"/>
+        <item t="data" sd="1" x="109"/>
+        <item t="data" sd="1" x="110"/>
+        <item t="data" sd="1" x="111"/>
+        <item t="data" sd="1" x="112"/>
+        <item t="data" sd="1" x="113"/>
+        <item t="data" sd="1" x="114"/>
+        <item t="data" sd="1" x="115"/>
+        <item t="data" sd="1" x="116"/>
+        <item t="data" sd="1" x="117"/>
+        <item t="data" sd="1" x="118"/>
+        <item t="data" sd="1" x="119"/>
+        <item t="data" sd="1" x="120"/>
+        <item t="data" sd="1" x="121"/>
+        <item t="data" sd="1" x="122"/>
+        <item t="data" sd="1" x="123"/>
+        <item t="data" sd="1" x="124"/>
+        <item t="data" sd="1" x="125"/>
+        <item t="data" sd="1" x="126"/>
+        <item t="data" sd="1" x="127"/>
+        <item t="data" sd="1" x="128"/>
+        <item t="data" sd="1" x="129"/>
+        <item t="data" sd="1" x="130"/>
+        <item t="data" sd="1" x="131"/>
+        <item t="data" sd="1" x="132"/>
+        <item t="data" sd="1" x="133"/>
+        <item t="data" sd="1" x="134"/>
+        <item t="data" sd="1" x="135"/>
+        <item t="data" sd="1" x="136"/>
+        <item t="data" sd="1" x="137"/>
+        <item t="data" sd="1" x="138"/>
+        <item t="data" sd="1" x="139"/>
+        <item t="data" sd="1" x="140"/>
+        <item t="data" sd="1" x="141"/>
+        <item t="data" sd="1" x="142"/>
+        <item t="data" sd="1" x="143"/>
+        <item t="data" sd="1" x="144"/>
+        <item t="data" sd="1" x="145"/>
+        <item t="data" sd="1" x="146"/>
+        <item t="data" sd="1" x="147"/>
+        <item t="data" sd="1" x="148"/>
+        <item t="data" sd="1" x="149"/>
+        <item t="data" sd="1" x="150"/>
+        <item t="data" sd="1" x="151"/>
+        <item t="data" sd="1" x="152"/>
+        <item t="data" sd="1" x="153"/>
+        <item t="data" sd="1" x="154"/>
+        <item t="data" sd="1" x="155"/>
+        <item t="data" sd="1" x="156"/>
+        <item t="data" sd="1" x="157"/>
+        <item t="data" sd="1" x="158"/>
+        <item t="data" sd="1" x="159"/>
+        <item t="data" sd="1" x="160"/>
+        <item t="data" sd="1" x="161"/>
+        <item t="data" sd="1" x="162"/>
+        <item t="data" sd="1" x="163"/>
+        <item t="data" sd="1" x="164"/>
+        <item t="data" sd="1" x="165"/>
+        <item t="data" sd="1" x="166"/>
+        <item t="data" sd="1" x="167"/>
+        <item t="data" sd="1" x="168"/>
+        <item t="data" sd="1" x="169"/>
+        <item t="data" sd="1" x="170"/>
+        <item t="data" sd="1" x="171"/>
+        <item t="data" sd="1" x="172"/>
+        <item t="data" sd="1" x="173"/>
+        <item t="data" sd="1" x="174"/>
+        <item t="data" sd="1" x="175"/>
+        <item t="data" sd="1" x="176"/>
+        <item t="data" sd="1" x="177"/>
+        <item t="data" sd="1" x="178"/>
+        <item t="data" sd="1" x="179"/>
+        <item t="data" sd="1" x="180"/>
+        <item t="data" sd="1" x="181"/>
+        <item t="data" sd="1" x="182"/>
+        <item t="data" sd="1" x="183"/>
+        <item t="data" sd="1" x="184"/>
+        <item t="data" sd="1" x="185"/>
+        <item t="data" sd="1" x="186"/>
+        <item t="data" sd="1" x="187"/>
+        <item t="data" sd="1" x="188"/>
+        <item t="data" sd="1" x="189"/>
+        <item t="data" sd="1" x="190"/>
+        <item t="data" sd="1" x="191"/>
+        <item t="data" sd="1" x="192"/>
+        <item t="data" sd="1" x="193"/>
+        <item t="data" sd="1" x="194"/>
+        <item t="data" sd="1" x="195"/>
+        <item t="data" sd="1" x="196"/>
+        <item t="data" sd="1" x="197"/>
+        <item t="data" sd="1" x="198"/>
+        <item t="data" sd="1" x="199"/>
+        <item t="data" sd="1" x="200"/>
+        <item t="data" sd="1" x="201"/>
+        <item t="data" sd="1" x="202"/>
+        <item t="data" sd="1" x="203"/>
+        <item t="data" sd="1" x="204"/>
+        <item t="data" sd="1" x="205"/>
+        <item t="data" sd="1" x="206"/>
+        <item t="data" sd="1" x="207"/>
+        <item t="data" sd="1" x="208"/>
+        <item t="data" sd="1" x="209"/>
+        <item t="data" sd="1" x="210"/>
+        <item t="data" sd="1" x="211"/>
+        <item t="data" sd="1" x="212"/>
+        <item t="data" sd="1" x="213"/>
+        <item t="data" sd="1" x="214"/>
+        <item t="data" sd="1" x="215"/>
+        <item t="data" sd="1" x="216"/>
+        <item t="data" sd="1" x="217"/>
+        <item t="data" sd="1" x="218"/>
+        <item t="data" sd="1" x="219"/>
+        <item t="data" sd="1" x="220"/>
+        <item t="data" sd="1" x="221"/>
+        <item t="data" sd="1" x="222"/>
+        <item t="data" sd="1" x="223"/>
+        <item t="data" sd="1" x="224"/>
+        <item t="data" sd="1" x="225"/>
+        <item t="data" sd="1" x="226"/>
+        <item t="data" sd="1" x="227"/>
+        <item t="data" sd="1" x="228"/>
+        <item t="data" sd="1" x="229"/>
+        <item t="data" sd="1" x="230"/>
+        <item t="data" sd="1" x="231"/>
+        <item t="data" sd="1" x="232"/>
+        <item t="data" sd="1" x="233"/>
+        <item t="data" sd="1" x="234"/>
+        <item t="data" sd="1" x="235"/>
+        <item t="data" sd="1" x="236"/>
+        <item t="data" sd="1" x="237"/>
+        <item t="data" sd="1" x="238"/>
+        <item t="data" sd="1" x="239"/>
+        <item t="data" sd="1" x="240"/>
+        <item t="data" sd="1" x="241"/>
+        <item t="data" sd="1" x="242"/>
+        <item t="data" sd="1" x="243"/>
+        <item t="data" sd="1" x="244"/>
+        <item t="data" sd="1" x="245"/>
+        <item t="data" sd="1" x="246"/>
+        <item t="data" sd="1" x="247"/>
+        <item t="data" sd="1" x="248"/>
+        <item t="data" sd="1" x="249"/>
+        <item t="data" sd="1" x="250"/>
+        <item t="data" sd="1" x="251"/>
+        <item t="data" sd="1" x="252"/>
+        <item t="data" sd="1" x="253"/>
+        <item t="data" sd="1" x="254"/>
+        <item t="data" sd="1" x="255"/>
+        <item t="data" sd="1" x="256"/>
+        <item t="data" sd="1" x="257"/>
+        <item t="data" sd="1" x="258"/>
+        <item t="data" sd="1" x="259"/>
+        <item t="data" sd="1" x="260"/>
+        <item t="data" sd="1" x="261"/>
+        <item t="data" sd="1" x="262"/>
+        <item t="data" sd="1" x="263"/>
+        <item t="data" sd="1" x="264"/>
+        <item t="data" sd="1" x="265"/>
+        <item t="data" sd="1" x="266"/>
+        <item t="data" sd="1" x="267"/>
+        <item t="data" sd="1" x="268"/>
+        <item t="data" sd="1" x="269"/>
+        <item t="data" sd="1" x="270"/>
+        <item t="data" sd="1" x="271"/>
+        <item t="data" sd="1" x="272"/>
+        <item t="data" sd="1" x="273"/>
+        <item t="data" sd="1" x="274"/>
+        <item t="data" sd="1" x="275"/>
+        <item t="data" sd="1" x="276"/>
+        <item t="data" sd="1" x="277"/>
+        <item t="data" sd="1" x="278"/>
+        <item t="data" sd="1" x="279"/>
+        <item t="data" sd="1" x="280"/>
+        <item t="data" sd="1" x="281"/>
+        <item t="data" sd="1" x="282"/>
+        <item t="data" sd="1" x="283"/>
+        <item t="data" sd="1" x="284"/>
+        <item t="data" sd="1" x="285"/>
+        <item t="data" sd="1" x="286"/>
+        <item t="data" sd="1" x="287"/>
+        <item t="data" sd="1" x="288"/>
+        <item t="data" sd="1" x="289"/>
+        <item t="data" sd="1" x="290"/>
+        <item t="data" sd="1" x="291"/>
+        <item t="data" sd="1" x="292"/>
+        <item t="data" sd="1" x="293"/>
+        <item t="data" sd="1" x="294"/>
+        <item t="data" sd="1" x="295"/>
+        <item t="data" sd="1" x="296"/>
+        <item t="data" sd="1" x="297"/>
+        <item t="data" sd="1" x="298"/>
+        <item t="data" sd="1" x="299"/>
+        <item t="data" sd="1" x="300"/>
+        <item t="data" sd="1" x="301"/>
+        <item t="data" sd="1" x="302"/>
+        <item t="data" sd="1" x="303"/>
+        <item t="data" sd="1" x="304"/>
+        <item t="data" sd="1" x="305"/>
+        <item t="data" sd="1" x="306"/>
+        <item t="data" sd="1" x="307"/>
+        <item t="data" sd="1" x="308"/>
+        <item t="data" sd="1" x="309"/>
+        <item t="data" sd="1" x="310"/>
+        <item t="data" sd="1" x="311"/>
+        <item t="data" sd="1" x="312"/>
+        <item t="data" sd="1" x="313"/>
+        <item t="data" sd="1" x="314"/>
+        <item t="data" sd="1" x="315"/>
+        <item t="data" sd="1" x="316"/>
+        <item t="data" sd="1" x="317"/>
+        <item t="data" sd="1" x="318"/>
+        <item t="data" sd="1" x="319"/>
+        <item t="data" sd="1" x="320"/>
+        <item t="data" sd="1" x="321"/>
+        <item t="data" sd="1" x="322"/>
+        <item t="data" sd="1" x="323"/>
+        <item t="data" sd="1" x="324"/>
+        <item t="data" sd="1" x="325"/>
+        <item t="data" sd="1" x="326"/>
+        <item t="data" sd="1" x="327"/>
+        <item t="data" sd="1" x="328"/>
+        <item t="data" sd="1" x="329"/>
+        <item t="data" sd="1" x="330"/>
+        <item t="data" sd="1" x="331"/>
+        <item t="data" sd="1" x="332"/>
+        <item t="data" sd="1" x="333"/>
+        <item t="data" sd="1" x="334"/>
+        <item t="data" sd="1" x="335"/>
+        <item t="data" sd="1" x="336"/>
+        <item t="data" sd="1" x="337"/>
+        <item t="data" sd="1" x="338"/>
+        <item t="data" sd="1" x="339"/>
+        <item t="data" sd="1" x="340"/>
+        <item t="data" sd="1" x="341"/>
+        <item t="data" sd="1" x="342"/>
+        <item t="data" sd="1" x="343"/>
+        <item t="data" sd="1" x="344"/>
+        <item t="data" sd="1" x="345"/>
+        <item t="data" sd="1" x="346"/>
+        <item t="data" sd="1" x="347"/>
+        <item t="data" sd="1" x="348"/>
+        <item t="data" sd="1" x="349"/>
+        <item t="data" sd="1" x="350"/>
+        <item t="data" sd="1" x="351"/>
+        <item t="data" sd="1" x="352"/>
+        <item t="data" sd="1" x="353"/>
+        <item t="data" sd="1" x="354"/>
+        <item t="data" sd="1" x="355"/>
+        <item t="data" sd="1" x="356"/>
+        <item t="data" sd="1" x="357"/>
+        <item t="data" sd="1" x="358"/>
+        <item t="data" sd="1" x="359"/>
+        <item t="data" sd="1" x="360"/>
+        <item t="data" sd="1" x="361"/>
+        <item t="data" sd="1" x="362"/>
+        <item t="data" sd="1" x="363"/>
+        <item t="data" sd="1" x="364"/>
+        <item t="data" sd="1" x="365"/>
+        <item t="data" sd="1" x="366"/>
+        <item t="data" sd="1" x="367"/>
+        <item t="default" sd="1"/>
+      </items>
+    </pivotField>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField axis="axisCol" showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1">
+      <items count="4">
+        <item t="data" sd="1" x="0"/>
+        <item t="data" sd="1" x="1"/>
+        <item t="data" sd="1" x="2"/>
+        <item t="default" sd="1"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1">
+      <items count="5">
+        <item t="data" sd="1" x="1"/>
+        <item t="data" sd="1" x="0"/>
+        <item t="data" h="1" sd="1" x="3"/>
+        <item t="data" sd="1" x="2"/>
+        <item t="default" sd="1"/>
+      </items>
+    </pivotField>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1">
+      <items count="15">
+        <item t="data" sd="1" x="0"/>
+        <item t="data" sd="1" x="1"/>
+        <item t="data" sd="1" x="2"/>
+        <item t="data" sd="1" x="3"/>
+        <item t="data" sd="1" x="4"/>
+        <item t="data" sd="1" x="5"/>
+        <item t="data" sd="1" x="6"/>
+        <item t="data" sd="1" x="7"/>
+        <item t="data" sd="1" x="8"/>
+        <item t="data" sd="1" x="9"/>
+        <item t="data" sd="1" x="10"/>
+        <item t="data" sd="1" x="11"/>
+        <item t="data" sd="1" x="12"/>
+        <item t="data" sd="1" x="13"/>
+        <item t="default" sd="1"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="4">
+    <i t="data" r="0" i="0">
+      <x v="0"/>
+    </i>
+    <i t="data" r="0" i="0">
+      <x v="1"/>
+    </i>
+    <i t="data" r="0" i="0">
+      <x v="3"/>
+    </i>
+    <i t="grand" r="0" i="0">
+      <x v="0"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="3">
+    <i t="data" r="0" i="0">
+      <x v="0"/>
+    </i>
+    <i t="data" r="0" i="0">
+      <x v="1"/>
+    </i>
+    <i t="grand" r="0" i="0">
+      <x v="0"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Nombre de Détecter Quand" fld="4" subtotal="count" showDataAs="normal" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" dataOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" dataOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="1" dataOnRows="0" dataCaption="Valeurs" showError="0" showMissing="1" updatedVersion="7" minRefreshableVersion="3" asteriskTotals="0" showItems="1" editData="0" disableFieldList="0" showCalcMbrs="1" visualTotals="1" showMultipleLabel="1" showDataDropDown="1" showDrill="1" printDrill="0" showMemberPropertyTips="1" showDataTips="1" enableWizard="1" enableDrill="1" enableFieldProperties="1" preserveFormatting="1" useAutoFormatting="1" pageWrap="0" pageOverThenDown="0" subtotalHiddenItems="0" rowGrandTotals="1" colGrandTotals="1" fieldPrintTitles="0" itemPrintTitles="1" mergeItem="0" showDropZones="1" createdVersion="7" indent="0" showEmptyRow="0" showEmptyCol="0" showHeaders="1" compact="1" outline="1" outlineData="1" compactData="1" published="0" gridDropZones="0" immersive="1" multipleFieldFilters="0" chartFormat="8" fieldListSortAscending="0" mdxSubqueries="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" r:id="rId1">
+  <location ref="I15:L19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField axis="axisRow" showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1">
+      <items count="5">
+        <item t="data" h="1" sd="1" x="3"/>
+        <item t="data" sd="1" x="1"/>
+        <item t="data" sd="1" x="0"/>
+        <item t="data" h="1" sd="1" x="2"/>
+        <item t="default" sd="1"/>
+      </items>
+    </pivotField>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField axis="axisCol" dataField="1" showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1">
+      <items count="6">
+        <item t="data" sd="1" x="3"/>
+        <item t="data" sd="1" m="1" x="4"/>
+        <item t="data" sd="1" x="0"/>
+        <item t="data" sd="1" x="1"/>
+        <item t="data" sd="1" x="2"/>
+        <item t="default" sd="1"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="11"/>
+  </rowFields>
+  <rowItems count="3">
+    <i t="data" r="0" i="0">
+      <x v="1"/>
+    </i>
+    <i t="data" r="0" i="0">
+      <x v="2"/>
+    </i>
+    <i t="grand" r="0" i="0">
+      <x v="0"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="13"/>
+  </colFields>
+  <colItems count="3">
+    <i t="data" r="0" i="0">
+      <x v="2"/>
+    </i>
+    <i t="data" r="0" i="0">
+      <x v="3"/>
+    </i>
+    <i t="grand" r="0" i="0">
+      <x v="0"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Nombre de Lead time Vérif" fld="13" subtotal="count" showDataAs="normal" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="9">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" dataOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="0">
+      <pivotArea type="data" dataOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="11" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="13" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="2" series="1">
+      <pivotArea type="data" dataOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="3" series="0">
+      <pivotArea type="data" dataOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="11" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="13" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="4" series="1">
+      <pivotArea type="data" dataOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="5" series="0">
+      <pivotArea type="data" dataOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="11" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="13" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" dataOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="0">
+      <pivotArea type="data" dataOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="11" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="13" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6" series="0">
+      <pivotArea type="data" dataOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="11" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="13" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="0" dataOnRows="0" dataCaption="Valeurs" showError="0" showMissing="1" updatedVersion="7" minRefreshableVersion="3" asteriskTotals="0" showItems="1" editData="0" disableFieldList="0" showCalcMbrs="1" visualTotals="1" showMultipleLabel="1" showDataDropDown="1" showDrill="1" printDrill="0" showMemberPropertyTips="1" showDataTips="1" enableWizard="1" enableDrill="1" enableFieldProperties="1" preserveFormatting="1" useAutoFormatting="1" pageWrap="0" pageOverThenDown="0" subtotalHiddenItems="0" rowGrandTotals="1" colGrandTotals="1" fieldPrintTitles="0" itemPrintTitles="1" mergeItem="0" showDropZones="1" createdVersion="7" indent="0" showEmptyRow="0" showEmptyCol="0" showHeaders="1" compact="1" outline="1" outlineData="1" compactData="1" published="0" gridDropZones="0" immersive="1" multipleFieldFilters="0" chartFormat="2" fieldListSortAscending="0" mdxSubqueries="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" r:id="rId1">
   <location ref="F6:I11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="17">
@@ -6815,287 +7501,12 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="1" dataOnRows="0" dataCaption="Valeurs" showError="0" showMissing="1" updatedVersion="7" minRefreshableVersion="3" asteriskTotals="0" showItems="1" editData="0" disableFieldList="0" showCalcMbrs="1" visualTotals="1" showMultipleLabel="1" showDataDropDown="1" showDrill="1" printDrill="0" showMemberPropertyTips="1" showDataTips="1" enableWizard="1" enableDrill="1" enableFieldProperties="1" preserveFormatting="1" useAutoFormatting="1" pageWrap="0" pageOverThenDown="0" subtotalHiddenItems="0" rowGrandTotals="1" colGrandTotals="1" fieldPrintTitles="0" itemPrintTitles="1" mergeItem="0" showDropZones="1" createdVersion="7" indent="0" showEmptyRow="0" showEmptyCol="0" showHeaders="1" compact="1" outline="1" outlineData="1" compactData="1" published="0" gridDropZones="0" immersive="1" multipleFieldFilters="0" chartFormat="8" fieldListSortAscending="0" mdxSubqueries="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" r:id="rId1">
-  <location ref="I15:L19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField axis="axisRow" showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1">
-      <items count="5">
-        <item t="data" h="1" sd="1" x="3"/>
-        <item t="data" sd="1" x="1"/>
-        <item t="data" sd="1" x="0"/>
-        <item t="data" h="1" sd="1" x="2"/>
-        <item t="default" sd="1"/>
-      </items>
-    </pivotField>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField axis="axisCol" dataField="1" showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1">
-      <items count="6">
-        <item t="data" sd="1" x="3"/>
-        <item t="data" sd="1" m="1" x="4"/>
-        <item t="data" sd="1" x="0"/>
-        <item t="data" sd="1" x="1"/>
-        <item t="data" sd="1" x="2"/>
-        <item t="default" sd="1"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="11"/>
-  </rowFields>
-  <rowItems count="3">
-    <i t="data" r="0" i="0">
-      <x v="1"/>
-    </i>
-    <i t="data" r="0" i="0">
-      <x v="2"/>
-    </i>
-    <i t="grand" r="0" i="0">
-      <x v="0"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="13"/>
-  </colFields>
-  <colItems count="3">
-    <i t="data" r="0" i="0">
-      <x v="2"/>
-    </i>
-    <i t="data" r="0" i="0">
-      <x v="3"/>
-    </i>
-    <i t="grand" r="0" i="0">
-      <x v="0"/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Nombre de Lead time Vérif" fld="13" subtotal="count" showDataAs="normal" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="9">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" dataOnly="1" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="0">
-      <pivotArea type="data" dataOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="11" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="13" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="2" series="1">
-      <pivotArea type="data" dataOnly="1" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="3" series="0">
-      <pivotArea type="data" dataOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="11" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="13" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="4" series="1">
-      <pivotArea type="data" dataOnly="1" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="5" series="0">
-      <pivotArea type="data" dataOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="11" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="13" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
-      <pivotArea type="data" dataOnly="1" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3" series="0">
-      <pivotArea type="data" dataOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="11" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="13" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="6" series="0">
-      <pivotArea type="data" dataOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="11" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="13" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique6" cacheId="0" dataOnRows="0" dataCaption="Valeurs" showError="0" showMissing="1" updatedVersion="7" minRefreshableVersion="3" asteriskTotals="0" showItems="1" editData="0" disableFieldList="0" showCalcMbrs="1" visualTotals="1" showMultipleLabel="1" showDataDropDown="1" showDrill="1" printDrill="0" showMemberPropertyTips="1" showDataTips="1" enableWizard="1" enableDrill="1" enableFieldProperties="1" preserveFormatting="1" useAutoFormatting="1" pageWrap="0" pageOverThenDown="0" subtotalHiddenItems="0" rowGrandTotals="1" colGrandTotals="1" fieldPrintTitles="0" itemPrintTitles="1" mergeItem="0" showDropZones="1" createdVersion="7" indent="0" showEmptyRow="0" showEmptyCol="0" showHeaders="1" compact="1" outline="1" outlineData="1" compactData="1" published="0" gridDropZones="0" immersive="1" multipleFieldFilters="0" chartFormat="0" fieldListSortAscending="0" mdxSubqueries="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" r:id="rId1">
-  <location ref="P22:T27" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique7" cacheId="0" dataOnRows="0" dataCaption="Valeurs" showError="0" showMissing="1" updatedVersion="7" minRefreshableVersion="3" asteriskTotals="0" showItems="1" editData="0" disableFieldList="0" showCalcMbrs="1" visualTotals="1" showMultipleLabel="1" showDataDropDown="1" showDrill="1" printDrill="0" showMemberPropertyTips="1" showDataTips="1" enableWizard="1" enableDrill="1" enableFieldProperties="1" preserveFormatting="1" useAutoFormatting="1" pageWrap="0" pageOverThenDown="0" subtotalHiddenItems="0" rowGrandTotals="1" colGrandTotals="1" fieldPrintTitles="0" itemPrintTitles="1" mergeItem="0" showDropZones="1" createdVersion="7" indent="0" showEmptyRow="0" showEmptyCol="0" showHeaders="1" compact="1" outline="1" outlineData="1" compactData="1" published="0" gridDropZones="0" immersive="1" multipleFieldFilters="0" chartFormat="0" fieldListSortAscending="0" mdxSubqueries="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" r:id="rId1">
+  <location ref="P30:T36" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField axis="axisRow" showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1">
-      <items count="5">
-        <item t="data" sd="1" x="1"/>
-        <item t="data" sd="1" x="2"/>
-        <item t="data" sd="1" x="0"/>
-        <item t="data" h="1" sd="1" x="3"/>
-        <item t="default" sd="1"/>
-      </items>
-    </pivotField>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField axis="axisCol" dataField="1" showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1">
-      <items count="5">
-        <item t="data" sd="1" x="0"/>
-        <item t="data" sd="1" x="2"/>
-        <item t="data" sd="1" x="1"/>
-        <item t="data" h="1" sd="1" x="3"/>
-        <item t="default" sd="1"/>
-      </items>
-    </pivotField>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="4">
-    <i t="data" r="0" i="0">
-      <x v="0"/>
-    </i>
-    <i t="data" r="0" i="0">
-      <x v="1"/>
-    </i>
-    <i t="data" r="0" i="0">
-      <x v="2"/>
-    </i>
-    <i t="grand" r="0" i="0">
-      <x v="0"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="14"/>
-  </colFields>
-  <colItems count="4">
-    <i t="data" r="0" i="0">
-      <x v="0"/>
-    </i>
-    <i t="data" r="0" i="0">
-      <x v="1"/>
-    </i>
-    <i t="data" r="0" i="0">
-      <x v="2"/>
-    </i>
-    <i t="grand" r="0" i="0">
-      <x v="0"/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Nombre de Imputation de la NC" fld="14" subtotal="count" showDataAs="normal" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique3" cacheId="0" dataOnRows="0" dataCaption="Valeurs" showError="0" showMissing="1" updatedVersion="7" minRefreshableVersion="3" asteriskTotals="0" showItems="1" editData="0" disableFieldList="0" showCalcMbrs="1" visualTotals="1" showMultipleLabel="1" showDataDropDown="1" showDrill="1" printDrill="0" showMemberPropertyTips="1" showDataTips="1" enableWizard="1" enableDrill="1" enableFieldProperties="1" preserveFormatting="1" useAutoFormatting="1" pageWrap="0" pageOverThenDown="0" subtotalHiddenItems="0" rowGrandTotals="1" colGrandTotals="1" fieldPrintTitles="0" itemPrintTitles="1" mergeItem="0" showDropZones="1" createdVersion="7" indent="0" showEmptyRow="0" showEmptyCol="0" showHeaders="1" compact="1" outline="1" outlineData="1" compactData="1" published="0" gridDropZones="0" immersive="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="0" mdxSubqueries="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" r:id="rId1">
-  <location ref="K13:N18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="17">
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1">
+    <pivotField axis="axisCol" showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1">
       <items count="369">
         <item t="data" sd="1" x="0"/>
         <item t="data" sd="1" x="1"/>
@@ -7469,20 +7880,472 @@
       </items>
     </pivotField>
     <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField axis="axisCol" showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1">
-      <items count="4">
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField axis="axisRow" dataField="1" showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1">
+      <items count="5">
         <item t="data" sd="1" x="0"/>
         <item t="data" sd="1" x="1"/>
         <item t="data" sd="1" x="2"/>
+        <item t="data" h="1" sd="1" x="3"/>
         <item t="default" sd="1"/>
       </items>
     </pivotField>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField axis="axisCol" showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="0">
+      <items count="14">
+        <item t="data" h="1" sd="0" x="0"/>
+        <item t="data" sd="0" x="1"/>
+        <item t="data" sd="0" x="2"/>
+        <item t="data" sd="0" x="3"/>
+        <item t="data" sd="0" x="4"/>
+        <item t="data" sd="0" x="5"/>
+        <item t="data" sd="0" x="6"/>
+        <item t="data" sd="0" x="7"/>
+        <item t="data" sd="0" x="8"/>
+        <item t="data" sd="0" x="9"/>
+        <item t="data" sd="0" x="10"/>
+        <item t="data" sd="0" x="11"/>
+        <item t="data" sd="0" x="12"/>
+        <item t="data" sd="0" x="13"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="4">
+    <i t="data" r="0" i="0">
+      <x v="0"/>
+    </i>
+    <i t="data" r="0" i="0">
+      <x v="1"/>
+    </i>
+    <i t="data" r="0" i="0">
+      <x v="2"/>
+    </i>
+    <i t="grand" r="0" i="0">
+      <x v="0"/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="16"/>
+    <field x="1"/>
+  </colFields>
+  <colItems count="4">
+    <i t="data" r="0" i="0">
+      <x v="2"/>
+    </i>
+    <i t="data" r="0" i="0">
+      <x v="3"/>
+    </i>
+    <i t="data" r="0" i="0">
+      <x v="4"/>
+    </i>
+    <i t="grand" r="0" i="0">
+      <x v="0"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Nombre de Classe d'affaire" fld="7" subtotal="count" showDataAs="normal" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique4" cacheId="0" dataOnRows="0" dataCaption="Valeurs" showError="0" showMissing="1" updatedVersion="7" minRefreshableVersion="3" asteriskTotals="0" showItems="1" editData="0" disableFieldList="0" showCalcMbrs="1" visualTotals="1" showMultipleLabel="1" showDataDropDown="1" showDrill="1" printDrill="0" showMemberPropertyTips="1" showDataTips="1" enableWizard="1" enableDrill="1" enableFieldProperties="1" preserveFormatting="1" useAutoFormatting="1" pageWrap="0" pageOverThenDown="0" subtotalHiddenItems="0" rowGrandTotals="1" colGrandTotals="1" fieldPrintTitles="0" itemPrintTitles="1" mergeItem="0" showDropZones="1" createdVersion="7" indent="0" showEmptyRow="0" showEmptyCol="0" showHeaders="1" compact="1" outline="1" outlineData="1" compactData="1" published="0" gridDropZones="0" immersive="1" multipleFieldFilters="0" chartFormat="0" fieldListSortAscending="0" mdxSubqueries="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" r:id="rId1">
+  <location ref="P5:R9" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <pivotFields count="17">
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField axis="axisCol" showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1">
+      <items count="369">
+        <item t="data" sd="1" x="0"/>
+        <item t="data" sd="1" x="1"/>
+        <item t="data" sd="1" x="2"/>
+        <item t="data" sd="1" x="3"/>
+        <item t="data" sd="1" x="4"/>
+        <item t="data" sd="1" x="5"/>
+        <item t="data" sd="1" x="6"/>
+        <item t="data" sd="1" x="7"/>
+        <item t="data" sd="1" x="8"/>
+        <item t="data" sd="1" x="9"/>
+        <item t="data" sd="1" x="10"/>
+        <item t="data" sd="1" x="11"/>
+        <item t="data" sd="1" x="12"/>
+        <item t="data" sd="1" x="13"/>
+        <item t="data" sd="1" x="14"/>
+        <item t="data" sd="1" x="15"/>
+        <item t="data" sd="1" x="16"/>
+        <item t="data" sd="1" x="17"/>
+        <item t="data" sd="1" x="18"/>
+        <item t="data" sd="1" x="19"/>
+        <item t="data" sd="1" x="20"/>
+        <item t="data" sd="1" x="21"/>
+        <item t="data" sd="1" x="22"/>
+        <item t="data" sd="1" x="23"/>
+        <item t="data" sd="1" x="24"/>
+        <item t="data" sd="1" x="25"/>
+        <item t="data" sd="1" x="26"/>
+        <item t="data" sd="1" x="27"/>
+        <item t="data" sd="1" x="28"/>
+        <item t="data" sd="1" x="29"/>
+        <item t="data" sd="1" x="30"/>
+        <item t="data" sd="1" x="31"/>
+        <item t="data" sd="1" x="32"/>
+        <item t="data" sd="1" x="33"/>
+        <item t="data" sd="1" x="34"/>
+        <item t="data" sd="1" x="35"/>
+        <item t="data" sd="1" x="36"/>
+        <item t="data" sd="1" x="37"/>
+        <item t="data" sd="1" x="38"/>
+        <item t="data" sd="1" x="39"/>
+        <item t="data" sd="1" x="40"/>
+        <item t="data" sd="1" x="41"/>
+        <item t="data" sd="1" x="42"/>
+        <item t="data" sd="1" x="43"/>
+        <item t="data" sd="1" x="44"/>
+        <item t="data" sd="1" x="45"/>
+        <item t="data" sd="1" x="46"/>
+        <item t="data" sd="1" x="47"/>
+        <item t="data" sd="1" x="48"/>
+        <item t="data" sd="1" x="49"/>
+        <item t="data" sd="1" x="50"/>
+        <item t="data" sd="1" x="51"/>
+        <item t="data" sd="1" x="52"/>
+        <item t="data" sd="1" x="53"/>
+        <item t="data" sd="1" x="54"/>
+        <item t="data" sd="1" x="55"/>
+        <item t="data" sd="1" x="56"/>
+        <item t="data" sd="1" x="57"/>
+        <item t="data" sd="1" x="58"/>
+        <item t="data" sd="1" x="59"/>
+        <item t="data" sd="1" x="60"/>
+        <item t="data" sd="1" x="61"/>
+        <item t="data" sd="1" x="62"/>
+        <item t="data" sd="1" x="63"/>
+        <item t="data" sd="1" x="64"/>
+        <item t="data" sd="1" x="65"/>
+        <item t="data" sd="1" x="66"/>
+        <item t="data" sd="1" x="67"/>
+        <item t="data" sd="1" x="68"/>
+        <item t="data" sd="1" x="69"/>
+        <item t="data" sd="1" x="70"/>
+        <item t="data" sd="1" x="71"/>
+        <item t="data" sd="1" x="72"/>
+        <item t="data" sd="1" x="73"/>
+        <item t="data" sd="1" x="74"/>
+        <item t="data" sd="1" x="75"/>
+        <item t="data" sd="1" x="76"/>
+        <item t="data" sd="1" x="77"/>
+        <item t="data" sd="1" x="78"/>
+        <item t="data" sd="1" x="79"/>
+        <item t="data" sd="1" x="80"/>
+        <item t="data" sd="1" x="81"/>
+        <item t="data" sd="1" x="82"/>
+        <item t="data" sd="1" x="83"/>
+        <item t="data" sd="1" x="84"/>
+        <item t="data" sd="1" x="85"/>
+        <item t="data" sd="1" x="86"/>
+        <item t="data" sd="1" x="87"/>
+        <item t="data" sd="1" x="88"/>
+        <item t="data" sd="1" x="89"/>
+        <item t="data" sd="1" x="90"/>
+        <item t="data" sd="1" x="91"/>
+        <item t="data" sd="1" x="92"/>
+        <item t="data" sd="1" x="93"/>
+        <item t="data" sd="1" x="94"/>
+        <item t="data" sd="1" x="95"/>
+        <item t="data" sd="1" x="96"/>
+        <item t="data" sd="1" x="97"/>
+        <item t="data" sd="1" x="98"/>
+        <item t="data" sd="1" x="99"/>
+        <item t="data" sd="1" x="100"/>
+        <item t="data" sd="1" x="101"/>
+        <item t="data" sd="1" x="102"/>
+        <item t="data" sd="1" x="103"/>
+        <item t="data" sd="1" x="104"/>
+        <item t="data" sd="1" x="105"/>
+        <item t="data" sd="1" x="106"/>
+        <item t="data" sd="1" x="107"/>
+        <item t="data" sd="1" x="108"/>
+        <item t="data" sd="1" x="109"/>
+        <item t="data" sd="1" x="110"/>
+        <item t="data" sd="1" x="111"/>
+        <item t="data" sd="1" x="112"/>
+        <item t="data" sd="1" x="113"/>
+        <item t="data" sd="1" x="114"/>
+        <item t="data" sd="1" x="115"/>
+        <item t="data" sd="1" x="116"/>
+        <item t="data" sd="1" x="117"/>
+        <item t="data" sd="1" x="118"/>
+        <item t="data" sd="1" x="119"/>
+        <item t="data" sd="1" x="120"/>
+        <item t="data" sd="1" x="121"/>
+        <item t="data" sd="1" x="122"/>
+        <item t="data" sd="1" x="123"/>
+        <item t="data" sd="1" x="124"/>
+        <item t="data" sd="1" x="125"/>
+        <item t="data" sd="1" x="126"/>
+        <item t="data" sd="1" x="127"/>
+        <item t="data" sd="1" x="128"/>
+        <item t="data" sd="1" x="129"/>
+        <item t="data" sd="1" x="130"/>
+        <item t="data" sd="1" x="131"/>
+        <item t="data" sd="1" x="132"/>
+        <item t="data" sd="1" x="133"/>
+        <item t="data" sd="1" x="134"/>
+        <item t="data" sd="1" x="135"/>
+        <item t="data" sd="1" x="136"/>
+        <item t="data" sd="1" x="137"/>
+        <item t="data" sd="1" x="138"/>
+        <item t="data" sd="1" x="139"/>
+        <item t="data" sd="1" x="140"/>
+        <item t="data" sd="1" x="141"/>
+        <item t="data" sd="1" x="142"/>
+        <item t="data" sd="1" x="143"/>
+        <item t="data" sd="1" x="144"/>
+        <item t="data" sd="1" x="145"/>
+        <item t="data" sd="1" x="146"/>
+        <item t="data" sd="1" x="147"/>
+        <item t="data" sd="1" x="148"/>
+        <item t="data" sd="1" x="149"/>
+        <item t="data" sd="1" x="150"/>
+        <item t="data" sd="1" x="151"/>
+        <item t="data" sd="1" x="152"/>
+        <item t="data" sd="1" x="153"/>
+        <item t="data" sd="1" x="154"/>
+        <item t="data" sd="1" x="155"/>
+        <item t="data" sd="1" x="156"/>
+        <item t="data" sd="1" x="157"/>
+        <item t="data" sd="1" x="158"/>
+        <item t="data" sd="1" x="159"/>
+        <item t="data" sd="1" x="160"/>
+        <item t="data" sd="1" x="161"/>
+        <item t="data" sd="1" x="162"/>
+        <item t="data" sd="1" x="163"/>
+        <item t="data" sd="1" x="164"/>
+        <item t="data" sd="1" x="165"/>
+        <item t="data" sd="1" x="166"/>
+        <item t="data" sd="1" x="167"/>
+        <item t="data" sd="1" x="168"/>
+        <item t="data" sd="1" x="169"/>
+        <item t="data" sd="1" x="170"/>
+        <item t="data" sd="1" x="171"/>
+        <item t="data" sd="1" x="172"/>
+        <item t="data" sd="1" x="173"/>
+        <item t="data" sd="1" x="174"/>
+        <item t="data" sd="1" x="175"/>
+        <item t="data" sd="1" x="176"/>
+        <item t="data" sd="1" x="177"/>
+        <item t="data" sd="1" x="178"/>
+        <item t="data" sd="1" x="179"/>
+        <item t="data" sd="1" x="180"/>
+        <item t="data" sd="1" x="181"/>
+        <item t="data" sd="1" x="182"/>
+        <item t="data" sd="1" x="183"/>
+        <item t="data" sd="1" x="184"/>
+        <item t="data" sd="1" x="185"/>
+        <item t="data" sd="1" x="186"/>
+        <item t="data" sd="1" x="187"/>
+        <item t="data" sd="1" x="188"/>
+        <item t="data" sd="1" x="189"/>
+        <item t="data" sd="1" x="190"/>
+        <item t="data" sd="1" x="191"/>
+        <item t="data" sd="1" x="192"/>
+        <item t="data" sd="1" x="193"/>
+        <item t="data" sd="1" x="194"/>
+        <item t="data" sd="1" x="195"/>
+        <item t="data" sd="1" x="196"/>
+        <item t="data" sd="1" x="197"/>
+        <item t="data" sd="1" x="198"/>
+        <item t="data" sd="1" x="199"/>
+        <item t="data" sd="1" x="200"/>
+        <item t="data" sd="1" x="201"/>
+        <item t="data" sd="1" x="202"/>
+        <item t="data" sd="1" x="203"/>
+        <item t="data" sd="1" x="204"/>
+        <item t="data" sd="1" x="205"/>
+        <item t="data" sd="1" x="206"/>
+        <item t="data" sd="1" x="207"/>
+        <item t="data" sd="1" x="208"/>
+        <item t="data" sd="1" x="209"/>
+        <item t="data" sd="1" x="210"/>
+        <item t="data" sd="1" x="211"/>
+        <item t="data" sd="1" x="212"/>
+        <item t="data" sd="1" x="213"/>
+        <item t="data" sd="1" x="214"/>
+        <item t="data" sd="1" x="215"/>
+        <item t="data" sd="1" x="216"/>
+        <item t="data" sd="1" x="217"/>
+        <item t="data" sd="1" x="218"/>
+        <item t="data" sd="1" x="219"/>
+        <item t="data" sd="1" x="220"/>
+        <item t="data" sd="1" x="221"/>
+        <item t="data" sd="1" x="222"/>
+        <item t="data" sd="1" x="223"/>
+        <item t="data" sd="1" x="224"/>
+        <item t="data" sd="1" x="225"/>
+        <item t="data" sd="1" x="226"/>
+        <item t="data" sd="1" x="227"/>
+        <item t="data" sd="1" x="228"/>
+        <item t="data" sd="1" x="229"/>
+        <item t="data" sd="1" x="230"/>
+        <item t="data" sd="1" x="231"/>
+        <item t="data" sd="1" x="232"/>
+        <item t="data" sd="1" x="233"/>
+        <item t="data" sd="1" x="234"/>
+        <item t="data" sd="1" x="235"/>
+        <item t="data" sd="1" x="236"/>
+        <item t="data" sd="1" x="237"/>
+        <item t="data" sd="1" x="238"/>
+        <item t="data" sd="1" x="239"/>
+        <item t="data" sd="1" x="240"/>
+        <item t="data" sd="1" x="241"/>
+        <item t="data" sd="1" x="242"/>
+        <item t="data" sd="1" x="243"/>
+        <item t="data" sd="1" x="244"/>
+        <item t="data" sd="1" x="245"/>
+        <item t="data" sd="1" x="246"/>
+        <item t="data" sd="1" x="247"/>
+        <item t="data" sd="1" x="248"/>
+        <item t="data" sd="1" x="249"/>
+        <item t="data" sd="1" x="250"/>
+        <item t="data" sd="1" x="251"/>
+        <item t="data" sd="1" x="252"/>
+        <item t="data" sd="1" x="253"/>
+        <item t="data" sd="1" x="254"/>
+        <item t="data" sd="1" x="255"/>
+        <item t="data" sd="1" x="256"/>
+        <item t="data" sd="1" x="257"/>
+        <item t="data" sd="1" x="258"/>
+        <item t="data" sd="1" x="259"/>
+        <item t="data" sd="1" x="260"/>
+        <item t="data" sd="1" x="261"/>
+        <item t="data" sd="1" x="262"/>
+        <item t="data" sd="1" x="263"/>
+        <item t="data" sd="1" x="264"/>
+        <item t="data" sd="1" x="265"/>
+        <item t="data" sd="1" x="266"/>
+        <item t="data" sd="1" x="267"/>
+        <item t="data" sd="1" x="268"/>
+        <item t="data" sd="1" x="269"/>
+        <item t="data" sd="1" x="270"/>
+        <item t="data" sd="1" x="271"/>
+        <item t="data" sd="1" x="272"/>
+        <item t="data" sd="1" x="273"/>
+        <item t="data" sd="1" x="274"/>
+        <item t="data" sd="1" x="275"/>
+        <item t="data" sd="1" x="276"/>
+        <item t="data" sd="1" x="277"/>
+        <item t="data" sd="1" x="278"/>
+        <item t="data" sd="1" x="279"/>
+        <item t="data" sd="1" x="280"/>
+        <item t="data" sd="1" x="281"/>
+        <item t="data" sd="1" x="282"/>
+        <item t="data" sd="1" x="283"/>
+        <item t="data" sd="1" x="284"/>
+        <item t="data" sd="1" x="285"/>
+        <item t="data" sd="1" x="286"/>
+        <item t="data" sd="1" x="287"/>
+        <item t="data" sd="1" x="288"/>
+        <item t="data" sd="1" x="289"/>
+        <item t="data" sd="1" x="290"/>
+        <item t="data" sd="1" x="291"/>
+        <item t="data" sd="1" x="292"/>
+        <item t="data" sd="1" x="293"/>
+        <item t="data" sd="1" x="294"/>
+        <item t="data" sd="1" x="295"/>
+        <item t="data" sd="1" x="296"/>
+        <item t="data" sd="1" x="297"/>
+        <item t="data" sd="1" x="298"/>
+        <item t="data" sd="1" x="299"/>
+        <item t="data" sd="1" x="300"/>
+        <item t="data" sd="1" x="301"/>
+        <item t="data" sd="1" x="302"/>
+        <item t="data" sd="1" x="303"/>
+        <item t="data" sd="1" x="304"/>
+        <item t="data" sd="1" x="305"/>
+        <item t="data" sd="1" x="306"/>
+        <item t="data" sd="1" x="307"/>
+        <item t="data" sd="1" x="308"/>
+        <item t="data" sd="1" x="309"/>
+        <item t="data" sd="1" x="310"/>
+        <item t="data" sd="1" x="311"/>
+        <item t="data" sd="1" x="312"/>
+        <item t="data" sd="1" x="313"/>
+        <item t="data" sd="1" x="314"/>
+        <item t="data" sd="1" x="315"/>
+        <item t="data" sd="1" x="316"/>
+        <item t="data" sd="1" x="317"/>
+        <item t="data" sd="1" x="318"/>
+        <item t="data" sd="1" x="319"/>
+        <item t="data" sd="1" x="320"/>
+        <item t="data" sd="1" x="321"/>
+        <item t="data" sd="1" x="322"/>
+        <item t="data" sd="1" x="323"/>
+        <item t="data" sd="1" x="324"/>
+        <item t="data" sd="1" x="325"/>
+        <item t="data" sd="1" x="326"/>
+        <item t="data" sd="1" x="327"/>
+        <item t="data" sd="1" x="328"/>
+        <item t="data" sd="1" x="329"/>
+        <item t="data" sd="1" x="330"/>
+        <item t="data" sd="1" x="331"/>
+        <item t="data" sd="1" x="332"/>
+        <item t="data" sd="1" x="333"/>
+        <item t="data" sd="1" x="334"/>
+        <item t="data" sd="1" x="335"/>
+        <item t="data" sd="1" x="336"/>
+        <item t="data" sd="1" x="337"/>
+        <item t="data" sd="1" x="338"/>
+        <item t="data" sd="1" x="339"/>
+        <item t="data" sd="1" x="340"/>
+        <item t="data" sd="1" x="341"/>
+        <item t="data" sd="1" x="342"/>
+        <item t="data" sd="1" x="343"/>
+        <item t="data" sd="1" x="344"/>
+        <item t="data" sd="1" x="345"/>
+        <item t="data" sd="1" x="346"/>
+        <item t="data" sd="1" x="347"/>
+        <item t="data" sd="1" x="348"/>
+        <item t="data" sd="1" x="349"/>
+        <item t="data" sd="1" x="350"/>
+        <item t="data" sd="1" x="351"/>
+        <item t="data" sd="1" x="352"/>
+        <item t="data" sd="1" x="353"/>
+        <item t="data" sd="1" x="354"/>
+        <item t="data" sd="1" x="355"/>
+        <item t="data" sd="1" x="356"/>
+        <item t="data" sd="1" x="357"/>
+        <item t="data" sd="1" x="358"/>
+        <item t="data" sd="1" x="359"/>
+        <item t="data" sd="1" x="360"/>
+        <item t="data" sd="1" x="361"/>
+        <item t="data" sd="1" x="362"/>
+        <item t="data" sd="1" x="363"/>
+        <item t="data" sd="1" x="364"/>
+        <item t="data" sd="1" x="365"/>
+        <item t="data" sd="1" x="366"/>
+        <item t="data" sd="1" x="367"/>
+        <item t="default" sd="1"/>
+      </items>
+    </pivotField>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
     <pivotField axis="axisRow" dataField="1" showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1">
-      <items count="5">
-        <item t="data" sd="1" x="1"/>
+      <items count="4">
+        <item t="data" h="1" sd="1" x="1"/>
+        <item t="data" h="1" sd="1" x="2"/>
         <item t="data" sd="1" x="0"/>
-        <item t="data" h="1" sd="1" x="3"/>
-        <item t="data" sd="1" x="2"/>
         <item t="default" sd="1"/>
       </items>
     </pivotField>
@@ -7497,91 +8360,58 @@
     <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
     <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
     <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1">
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField axis="axisCol" showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1">
       <items count="15">
-        <item t="data" sd="1" x="0"/>
-        <item t="data" sd="1" x="1"/>
-        <item t="data" sd="1" x="2"/>
-        <item t="data" sd="1" x="3"/>
-        <item t="data" sd="1" x="4"/>
-        <item t="data" sd="1" x="5"/>
-        <item t="data" sd="1" x="6"/>
-        <item t="data" sd="1" x="7"/>
-        <item t="data" sd="1" x="8"/>
-        <item t="data" sd="1" x="9"/>
-        <item t="data" sd="1" x="10"/>
-        <item t="data" sd="1" x="11"/>
-        <item t="data" sd="1" x="12"/>
-        <item t="data" sd="1" x="13"/>
+        <item t="data" h="1" sd="0" x="0"/>
+        <item t="data" sd="0" x="1"/>
+        <item t="data" sd="0" x="2"/>
+        <item t="data" sd="0" x="3"/>
+        <item t="data" sd="0" x="4"/>
+        <item t="data" sd="0" x="5"/>
+        <item t="data" sd="0" x="6"/>
+        <item t="data" sd="0" x="7"/>
+        <item t="data" sd="0" x="8"/>
+        <item t="data" sd="0" x="9"/>
+        <item t="data" sd="0" x="10"/>
+        <item t="data" sd="0" x="11"/>
+        <item t="data" sd="0" x="12"/>
+        <item t="data" sd="0" x="13"/>
         <item t="default" sd="1"/>
       </items>
     </pivotField>
   </pivotFields>
   <rowFields count="1">
-    <field x="4"/>
+    <field x="3"/>
   </rowFields>
-  <rowItems count="4">
+  <rowItems count="2">
     <i t="data" r="0" i="0">
-      <x v="0"/>
-    </i>
-    <i t="data" r="0" i="0">
-      <x v="1"/>
-    </i>
-    <i t="data" r="0" i="0">
-      <x v="3"/>
+      <x v="2"/>
     </i>
     <i t="grand" r="0" i="0">
       <x v="0"/>
     </i>
   </rowItems>
-  <colFields count="1">
-    <field x="3"/>
+  <colFields count="2">
+    <field x="16"/>
+    <field x="1"/>
   </colFields>
-  <colItems count="3">
+  <colItems count="2">
     <i t="data" r="0" i="0">
-      <x v="0"/>
-    </i>
-    <i t="data" r="0" i="0">
-      <x v="1"/>
+      <x v="2"/>
     </i>
     <i t="grand" r="0" i="0">
       <x v="0"/>
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Nombre de Détecter Quand" fld="4" subtotal="count" showDataAs="normal" baseField="0" baseItem="0"/>
+    <dataField name="Nombre de Détecter par" fld="3" subtotal="count" showDataAs="normal" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" dataOnly="1" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" dataOnly="1" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique5" cacheId="0" dataOnRows="0" dataCaption="Valeurs" showError="0" showMissing="1" updatedVersion="7" minRefreshableVersion="3" asteriskTotals="0" showItems="1" editData="0" disableFieldList="0" showCalcMbrs="1" visualTotals="1" showMultipleLabel="1" showDataDropDown="1" showDrill="1" printDrill="0" showMemberPropertyTips="1" showDataTips="1" enableWizard="1" enableDrill="1" enableFieldProperties="1" preserveFormatting="1" useAutoFormatting="1" pageWrap="0" pageOverThenDown="0" subtotalHiddenItems="0" rowGrandTotals="1" colGrandTotals="1" fieldPrintTitles="0" itemPrintTitles="1" mergeItem="0" showDropZones="1" createdVersion="7" indent="0" showEmptyRow="0" showEmptyCol="0" showHeaders="1" compact="1" outline="1" outlineData="1" compactData="1" published="0" gridDropZones="0" immersive="1" multipleFieldFilters="0" chartFormat="0" fieldListSortAscending="0" mdxSubqueries="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" r:id="rId1">
   <location ref="P13:S19" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="17">
@@ -8057,390 +8887,20 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique4" cacheId="0" dataOnRows="0" dataCaption="Valeurs" showError="0" showMissing="1" updatedVersion="7" minRefreshableVersion="3" asteriskTotals="0" showItems="1" editData="0" disableFieldList="0" showCalcMbrs="1" visualTotals="1" showMultipleLabel="1" showDataDropDown="1" showDrill="1" printDrill="0" showMemberPropertyTips="1" showDataTips="1" enableWizard="1" enableDrill="1" enableFieldProperties="1" preserveFormatting="1" useAutoFormatting="1" pageWrap="0" pageOverThenDown="0" subtotalHiddenItems="0" rowGrandTotals="1" colGrandTotals="1" fieldPrintTitles="0" itemPrintTitles="1" mergeItem="0" showDropZones="1" createdVersion="7" indent="0" showEmptyRow="0" showEmptyCol="0" showHeaders="1" compact="1" outline="1" outlineData="1" compactData="1" published="0" gridDropZones="0" immersive="1" multipleFieldFilters="0" chartFormat="0" fieldListSortAscending="0" mdxSubqueries="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" r:id="rId1">
-  <location ref="P5:R9" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique6" cacheId="0" dataOnRows="0" dataCaption="Valeurs" showError="0" showMissing="1" updatedVersion="7" minRefreshableVersion="3" asteriskTotals="0" showItems="1" editData="0" disableFieldList="0" showCalcMbrs="1" visualTotals="1" showMultipleLabel="1" showDataDropDown="1" showDrill="1" printDrill="0" showMemberPropertyTips="1" showDataTips="1" enableWizard="1" enableDrill="1" enableFieldProperties="1" preserveFormatting="1" useAutoFormatting="1" pageWrap="0" pageOverThenDown="0" subtotalHiddenItems="0" rowGrandTotals="1" colGrandTotals="1" fieldPrintTitles="0" itemPrintTitles="1" mergeItem="0" showDropZones="1" createdVersion="7" indent="0" showEmptyRow="0" showEmptyCol="0" showHeaders="1" compact="1" outline="1" outlineData="1" compactData="1" published="0" gridDropZones="0" immersive="1" multipleFieldFilters="0" chartFormat="0" fieldListSortAscending="0" mdxSubqueries="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" r:id="rId1">
+  <location ref="P22:T27" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField axis="axisCol" showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1">
-      <items count="369">
-        <item t="data" sd="1" x="0"/>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField axis="axisRow" showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1">
+      <items count="5">
         <item t="data" sd="1" x="1"/>
         <item t="data" sd="1" x="2"/>
-        <item t="data" sd="1" x="3"/>
-        <item t="data" sd="1" x="4"/>
-        <item t="data" sd="1" x="5"/>
-        <item t="data" sd="1" x="6"/>
-        <item t="data" sd="1" x="7"/>
-        <item t="data" sd="1" x="8"/>
-        <item t="data" sd="1" x="9"/>
-        <item t="data" sd="1" x="10"/>
-        <item t="data" sd="1" x="11"/>
-        <item t="data" sd="1" x="12"/>
-        <item t="data" sd="1" x="13"/>
-        <item t="data" sd="1" x="14"/>
-        <item t="data" sd="1" x="15"/>
-        <item t="data" sd="1" x="16"/>
-        <item t="data" sd="1" x="17"/>
-        <item t="data" sd="1" x="18"/>
-        <item t="data" sd="1" x="19"/>
-        <item t="data" sd="1" x="20"/>
-        <item t="data" sd="1" x="21"/>
-        <item t="data" sd="1" x="22"/>
-        <item t="data" sd="1" x="23"/>
-        <item t="data" sd="1" x="24"/>
-        <item t="data" sd="1" x="25"/>
-        <item t="data" sd="1" x="26"/>
-        <item t="data" sd="1" x="27"/>
-        <item t="data" sd="1" x="28"/>
-        <item t="data" sd="1" x="29"/>
-        <item t="data" sd="1" x="30"/>
-        <item t="data" sd="1" x="31"/>
-        <item t="data" sd="1" x="32"/>
-        <item t="data" sd="1" x="33"/>
-        <item t="data" sd="1" x="34"/>
-        <item t="data" sd="1" x="35"/>
-        <item t="data" sd="1" x="36"/>
-        <item t="data" sd="1" x="37"/>
-        <item t="data" sd="1" x="38"/>
-        <item t="data" sd="1" x="39"/>
-        <item t="data" sd="1" x="40"/>
-        <item t="data" sd="1" x="41"/>
-        <item t="data" sd="1" x="42"/>
-        <item t="data" sd="1" x="43"/>
-        <item t="data" sd="1" x="44"/>
-        <item t="data" sd="1" x="45"/>
-        <item t="data" sd="1" x="46"/>
-        <item t="data" sd="1" x="47"/>
-        <item t="data" sd="1" x="48"/>
-        <item t="data" sd="1" x="49"/>
-        <item t="data" sd="1" x="50"/>
-        <item t="data" sd="1" x="51"/>
-        <item t="data" sd="1" x="52"/>
-        <item t="data" sd="1" x="53"/>
-        <item t="data" sd="1" x="54"/>
-        <item t="data" sd="1" x="55"/>
-        <item t="data" sd="1" x="56"/>
-        <item t="data" sd="1" x="57"/>
-        <item t="data" sd="1" x="58"/>
-        <item t="data" sd="1" x="59"/>
-        <item t="data" sd="1" x="60"/>
-        <item t="data" sd="1" x="61"/>
-        <item t="data" sd="1" x="62"/>
-        <item t="data" sd="1" x="63"/>
-        <item t="data" sd="1" x="64"/>
-        <item t="data" sd="1" x="65"/>
-        <item t="data" sd="1" x="66"/>
-        <item t="data" sd="1" x="67"/>
-        <item t="data" sd="1" x="68"/>
-        <item t="data" sd="1" x="69"/>
-        <item t="data" sd="1" x="70"/>
-        <item t="data" sd="1" x="71"/>
-        <item t="data" sd="1" x="72"/>
-        <item t="data" sd="1" x="73"/>
-        <item t="data" sd="1" x="74"/>
-        <item t="data" sd="1" x="75"/>
-        <item t="data" sd="1" x="76"/>
-        <item t="data" sd="1" x="77"/>
-        <item t="data" sd="1" x="78"/>
-        <item t="data" sd="1" x="79"/>
-        <item t="data" sd="1" x="80"/>
-        <item t="data" sd="1" x="81"/>
-        <item t="data" sd="1" x="82"/>
-        <item t="data" sd="1" x="83"/>
-        <item t="data" sd="1" x="84"/>
-        <item t="data" sd="1" x="85"/>
-        <item t="data" sd="1" x="86"/>
-        <item t="data" sd="1" x="87"/>
-        <item t="data" sd="1" x="88"/>
-        <item t="data" sd="1" x="89"/>
-        <item t="data" sd="1" x="90"/>
-        <item t="data" sd="1" x="91"/>
-        <item t="data" sd="1" x="92"/>
-        <item t="data" sd="1" x="93"/>
-        <item t="data" sd="1" x="94"/>
-        <item t="data" sd="1" x="95"/>
-        <item t="data" sd="1" x="96"/>
-        <item t="data" sd="1" x="97"/>
-        <item t="data" sd="1" x="98"/>
-        <item t="data" sd="1" x="99"/>
-        <item t="data" sd="1" x="100"/>
-        <item t="data" sd="1" x="101"/>
-        <item t="data" sd="1" x="102"/>
-        <item t="data" sd="1" x="103"/>
-        <item t="data" sd="1" x="104"/>
-        <item t="data" sd="1" x="105"/>
-        <item t="data" sd="1" x="106"/>
-        <item t="data" sd="1" x="107"/>
-        <item t="data" sd="1" x="108"/>
-        <item t="data" sd="1" x="109"/>
-        <item t="data" sd="1" x="110"/>
-        <item t="data" sd="1" x="111"/>
-        <item t="data" sd="1" x="112"/>
-        <item t="data" sd="1" x="113"/>
-        <item t="data" sd="1" x="114"/>
-        <item t="data" sd="1" x="115"/>
-        <item t="data" sd="1" x="116"/>
-        <item t="data" sd="1" x="117"/>
-        <item t="data" sd="1" x="118"/>
-        <item t="data" sd="1" x="119"/>
-        <item t="data" sd="1" x="120"/>
-        <item t="data" sd="1" x="121"/>
-        <item t="data" sd="1" x="122"/>
-        <item t="data" sd="1" x="123"/>
-        <item t="data" sd="1" x="124"/>
-        <item t="data" sd="1" x="125"/>
-        <item t="data" sd="1" x="126"/>
-        <item t="data" sd="1" x="127"/>
-        <item t="data" sd="1" x="128"/>
-        <item t="data" sd="1" x="129"/>
-        <item t="data" sd="1" x="130"/>
-        <item t="data" sd="1" x="131"/>
-        <item t="data" sd="1" x="132"/>
-        <item t="data" sd="1" x="133"/>
-        <item t="data" sd="1" x="134"/>
-        <item t="data" sd="1" x="135"/>
-        <item t="data" sd="1" x="136"/>
-        <item t="data" sd="1" x="137"/>
-        <item t="data" sd="1" x="138"/>
-        <item t="data" sd="1" x="139"/>
-        <item t="data" sd="1" x="140"/>
-        <item t="data" sd="1" x="141"/>
-        <item t="data" sd="1" x="142"/>
-        <item t="data" sd="1" x="143"/>
-        <item t="data" sd="1" x="144"/>
-        <item t="data" sd="1" x="145"/>
-        <item t="data" sd="1" x="146"/>
-        <item t="data" sd="1" x="147"/>
-        <item t="data" sd="1" x="148"/>
-        <item t="data" sd="1" x="149"/>
-        <item t="data" sd="1" x="150"/>
-        <item t="data" sd="1" x="151"/>
-        <item t="data" sd="1" x="152"/>
-        <item t="data" sd="1" x="153"/>
-        <item t="data" sd="1" x="154"/>
-        <item t="data" sd="1" x="155"/>
-        <item t="data" sd="1" x="156"/>
-        <item t="data" sd="1" x="157"/>
-        <item t="data" sd="1" x="158"/>
-        <item t="data" sd="1" x="159"/>
-        <item t="data" sd="1" x="160"/>
-        <item t="data" sd="1" x="161"/>
-        <item t="data" sd="1" x="162"/>
-        <item t="data" sd="1" x="163"/>
-        <item t="data" sd="1" x="164"/>
-        <item t="data" sd="1" x="165"/>
-        <item t="data" sd="1" x="166"/>
-        <item t="data" sd="1" x="167"/>
-        <item t="data" sd="1" x="168"/>
-        <item t="data" sd="1" x="169"/>
-        <item t="data" sd="1" x="170"/>
-        <item t="data" sd="1" x="171"/>
-        <item t="data" sd="1" x="172"/>
-        <item t="data" sd="1" x="173"/>
-        <item t="data" sd="1" x="174"/>
-        <item t="data" sd="1" x="175"/>
-        <item t="data" sd="1" x="176"/>
-        <item t="data" sd="1" x="177"/>
-        <item t="data" sd="1" x="178"/>
-        <item t="data" sd="1" x="179"/>
-        <item t="data" sd="1" x="180"/>
-        <item t="data" sd="1" x="181"/>
-        <item t="data" sd="1" x="182"/>
-        <item t="data" sd="1" x="183"/>
-        <item t="data" sd="1" x="184"/>
-        <item t="data" sd="1" x="185"/>
-        <item t="data" sd="1" x="186"/>
-        <item t="data" sd="1" x="187"/>
-        <item t="data" sd="1" x="188"/>
-        <item t="data" sd="1" x="189"/>
-        <item t="data" sd="1" x="190"/>
-        <item t="data" sd="1" x="191"/>
-        <item t="data" sd="1" x="192"/>
-        <item t="data" sd="1" x="193"/>
-        <item t="data" sd="1" x="194"/>
-        <item t="data" sd="1" x="195"/>
-        <item t="data" sd="1" x="196"/>
-        <item t="data" sd="1" x="197"/>
-        <item t="data" sd="1" x="198"/>
-        <item t="data" sd="1" x="199"/>
-        <item t="data" sd="1" x="200"/>
-        <item t="data" sd="1" x="201"/>
-        <item t="data" sd="1" x="202"/>
-        <item t="data" sd="1" x="203"/>
-        <item t="data" sd="1" x="204"/>
-        <item t="data" sd="1" x="205"/>
-        <item t="data" sd="1" x="206"/>
-        <item t="data" sd="1" x="207"/>
-        <item t="data" sd="1" x="208"/>
-        <item t="data" sd="1" x="209"/>
-        <item t="data" sd="1" x="210"/>
-        <item t="data" sd="1" x="211"/>
-        <item t="data" sd="1" x="212"/>
-        <item t="data" sd="1" x="213"/>
-        <item t="data" sd="1" x="214"/>
-        <item t="data" sd="1" x="215"/>
-        <item t="data" sd="1" x="216"/>
-        <item t="data" sd="1" x="217"/>
-        <item t="data" sd="1" x="218"/>
-        <item t="data" sd="1" x="219"/>
-        <item t="data" sd="1" x="220"/>
-        <item t="data" sd="1" x="221"/>
-        <item t="data" sd="1" x="222"/>
-        <item t="data" sd="1" x="223"/>
-        <item t="data" sd="1" x="224"/>
-        <item t="data" sd="1" x="225"/>
-        <item t="data" sd="1" x="226"/>
-        <item t="data" sd="1" x="227"/>
-        <item t="data" sd="1" x="228"/>
-        <item t="data" sd="1" x="229"/>
-        <item t="data" sd="1" x="230"/>
-        <item t="data" sd="1" x="231"/>
-        <item t="data" sd="1" x="232"/>
-        <item t="data" sd="1" x="233"/>
-        <item t="data" sd="1" x="234"/>
-        <item t="data" sd="1" x="235"/>
-        <item t="data" sd="1" x="236"/>
-        <item t="data" sd="1" x="237"/>
-        <item t="data" sd="1" x="238"/>
-        <item t="data" sd="1" x="239"/>
-        <item t="data" sd="1" x="240"/>
-        <item t="data" sd="1" x="241"/>
-        <item t="data" sd="1" x="242"/>
-        <item t="data" sd="1" x="243"/>
-        <item t="data" sd="1" x="244"/>
-        <item t="data" sd="1" x="245"/>
-        <item t="data" sd="1" x="246"/>
-        <item t="data" sd="1" x="247"/>
-        <item t="data" sd="1" x="248"/>
-        <item t="data" sd="1" x="249"/>
-        <item t="data" sd="1" x="250"/>
-        <item t="data" sd="1" x="251"/>
-        <item t="data" sd="1" x="252"/>
-        <item t="data" sd="1" x="253"/>
-        <item t="data" sd="1" x="254"/>
-        <item t="data" sd="1" x="255"/>
-        <item t="data" sd="1" x="256"/>
-        <item t="data" sd="1" x="257"/>
-        <item t="data" sd="1" x="258"/>
-        <item t="data" sd="1" x="259"/>
-        <item t="data" sd="1" x="260"/>
-        <item t="data" sd="1" x="261"/>
-        <item t="data" sd="1" x="262"/>
-        <item t="data" sd="1" x="263"/>
-        <item t="data" sd="1" x="264"/>
-        <item t="data" sd="1" x="265"/>
-        <item t="data" sd="1" x="266"/>
-        <item t="data" sd="1" x="267"/>
-        <item t="data" sd="1" x="268"/>
-        <item t="data" sd="1" x="269"/>
-        <item t="data" sd="1" x="270"/>
-        <item t="data" sd="1" x="271"/>
-        <item t="data" sd="1" x="272"/>
-        <item t="data" sd="1" x="273"/>
-        <item t="data" sd="1" x="274"/>
-        <item t="data" sd="1" x="275"/>
-        <item t="data" sd="1" x="276"/>
-        <item t="data" sd="1" x="277"/>
-        <item t="data" sd="1" x="278"/>
-        <item t="data" sd="1" x="279"/>
-        <item t="data" sd="1" x="280"/>
-        <item t="data" sd="1" x="281"/>
-        <item t="data" sd="1" x="282"/>
-        <item t="data" sd="1" x="283"/>
-        <item t="data" sd="1" x="284"/>
-        <item t="data" sd="1" x="285"/>
-        <item t="data" sd="1" x="286"/>
-        <item t="data" sd="1" x="287"/>
-        <item t="data" sd="1" x="288"/>
-        <item t="data" sd="1" x="289"/>
-        <item t="data" sd="1" x="290"/>
-        <item t="data" sd="1" x="291"/>
-        <item t="data" sd="1" x="292"/>
-        <item t="data" sd="1" x="293"/>
-        <item t="data" sd="1" x="294"/>
-        <item t="data" sd="1" x="295"/>
-        <item t="data" sd="1" x="296"/>
-        <item t="data" sd="1" x="297"/>
-        <item t="data" sd="1" x="298"/>
-        <item t="data" sd="1" x="299"/>
-        <item t="data" sd="1" x="300"/>
-        <item t="data" sd="1" x="301"/>
-        <item t="data" sd="1" x="302"/>
-        <item t="data" sd="1" x="303"/>
-        <item t="data" sd="1" x="304"/>
-        <item t="data" sd="1" x="305"/>
-        <item t="data" sd="1" x="306"/>
-        <item t="data" sd="1" x="307"/>
-        <item t="data" sd="1" x="308"/>
-        <item t="data" sd="1" x="309"/>
-        <item t="data" sd="1" x="310"/>
-        <item t="data" sd="1" x="311"/>
-        <item t="data" sd="1" x="312"/>
-        <item t="data" sd="1" x="313"/>
-        <item t="data" sd="1" x="314"/>
-        <item t="data" sd="1" x="315"/>
-        <item t="data" sd="1" x="316"/>
-        <item t="data" sd="1" x="317"/>
-        <item t="data" sd="1" x="318"/>
-        <item t="data" sd="1" x="319"/>
-        <item t="data" sd="1" x="320"/>
-        <item t="data" sd="1" x="321"/>
-        <item t="data" sd="1" x="322"/>
-        <item t="data" sd="1" x="323"/>
-        <item t="data" sd="1" x="324"/>
-        <item t="data" sd="1" x="325"/>
-        <item t="data" sd="1" x="326"/>
-        <item t="data" sd="1" x="327"/>
-        <item t="data" sd="1" x="328"/>
-        <item t="data" sd="1" x="329"/>
-        <item t="data" sd="1" x="330"/>
-        <item t="data" sd="1" x="331"/>
-        <item t="data" sd="1" x="332"/>
-        <item t="data" sd="1" x="333"/>
-        <item t="data" sd="1" x="334"/>
-        <item t="data" sd="1" x="335"/>
-        <item t="data" sd="1" x="336"/>
-        <item t="data" sd="1" x="337"/>
-        <item t="data" sd="1" x="338"/>
-        <item t="data" sd="1" x="339"/>
-        <item t="data" sd="1" x="340"/>
-        <item t="data" sd="1" x="341"/>
-        <item t="data" sd="1" x="342"/>
-        <item t="data" sd="1" x="343"/>
-        <item t="data" sd="1" x="344"/>
-        <item t="data" sd="1" x="345"/>
-        <item t="data" sd="1" x="346"/>
-        <item t="data" sd="1" x="347"/>
-        <item t="data" sd="1" x="348"/>
-        <item t="data" sd="1" x="349"/>
-        <item t="data" sd="1" x="350"/>
-        <item t="data" sd="1" x="351"/>
-        <item t="data" sd="1" x="352"/>
-        <item t="data" sd="1" x="353"/>
-        <item t="data" sd="1" x="354"/>
-        <item t="data" sd="1" x="355"/>
-        <item t="data" sd="1" x="356"/>
-        <item t="data" sd="1" x="357"/>
-        <item t="data" sd="1" x="358"/>
-        <item t="data" sd="1" x="359"/>
-        <item t="data" sd="1" x="360"/>
-        <item t="data" sd="1" x="361"/>
-        <item t="data" sd="1" x="362"/>
-        <item t="data" sd="1" x="363"/>
-        <item t="data" sd="1" x="364"/>
-        <item t="data" sd="1" x="365"/>
-        <item t="data" sd="1" x="366"/>
-        <item t="data" sd="1" x="367"/>
-        <item t="default" sd="1"/>
-      </items>
-    </pivotField>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField axis="axisRow" dataField="1" showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1">
-      <items count="4">
-        <item t="data" h="1" sd="1" x="1"/>
-        <item t="data" h="1" sd="1" x="2"/>
         <item t="data" sd="1" x="0"/>
+        <item t="data" h="1" sd="1" x="3"/>
         <item t="default" sd="1"/>
       </items>
     </pivotField>
@@ -8453,480 +8913,20 @@
     <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
     <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
     <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField axis="axisCol" showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1">
-      <items count="15">
-        <item t="data" h="1" sd="0" x="0"/>
-        <item t="data" sd="0" x="1"/>
-        <item t="data" sd="0" x="2"/>
-        <item t="data" sd="0" x="3"/>
-        <item t="data" sd="0" x="4"/>
-        <item t="data" sd="0" x="5"/>
-        <item t="data" sd="0" x="6"/>
-        <item t="data" sd="0" x="7"/>
-        <item t="data" sd="0" x="8"/>
-        <item t="data" sd="0" x="9"/>
-        <item t="data" sd="0" x="10"/>
-        <item t="data" sd="0" x="11"/>
-        <item t="data" sd="0" x="12"/>
-        <item t="data" sd="0" x="13"/>
-        <item t="default" sd="1"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="2">
-    <i t="data" r="0" i="0">
-      <x v="2"/>
-    </i>
-    <i t="grand" r="0" i="0">
-      <x v="0"/>
-    </i>
-  </rowItems>
-  <colFields count="2">
-    <field x="16"/>
-    <field x="1"/>
-  </colFields>
-  <colItems count="2">
-    <i t="data" r="0" i="0">
-      <x v="2"/>
-    </i>
-    <i t="grand" r="0" i="0">
-      <x v="0"/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Nombre de Détecter par" fld="3" subtotal="count" showDataAs="normal" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique7" cacheId="0" dataOnRows="0" dataCaption="Valeurs" showError="0" showMissing="1" updatedVersion="7" minRefreshableVersion="3" asteriskTotals="0" showItems="1" editData="0" disableFieldList="0" showCalcMbrs="1" visualTotals="1" showMultipleLabel="1" showDataDropDown="1" showDrill="1" printDrill="0" showMemberPropertyTips="1" showDataTips="1" enableWizard="1" enableDrill="1" enableFieldProperties="1" preserveFormatting="1" useAutoFormatting="1" pageWrap="0" pageOverThenDown="0" subtotalHiddenItems="0" rowGrandTotals="1" colGrandTotals="1" fieldPrintTitles="0" itemPrintTitles="1" mergeItem="0" showDropZones="1" createdVersion="7" indent="0" showEmptyRow="0" showEmptyCol="0" showHeaders="1" compact="1" outline="1" outlineData="1" compactData="1" published="0" gridDropZones="0" immersive="1" multipleFieldFilters="0" chartFormat="0" fieldListSortAscending="0" mdxSubqueries="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" r:id="rId1">
-  <location ref="P30:T36" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
-  <pivotFields count="17">
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField axis="axisCol" showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1">
-      <items count="369">
-        <item t="data" sd="1" x="0"/>
-        <item t="data" sd="1" x="1"/>
-        <item t="data" sd="1" x="2"/>
-        <item t="data" sd="1" x="3"/>
-        <item t="data" sd="1" x="4"/>
-        <item t="data" sd="1" x="5"/>
-        <item t="data" sd="1" x="6"/>
-        <item t="data" sd="1" x="7"/>
-        <item t="data" sd="1" x="8"/>
-        <item t="data" sd="1" x="9"/>
-        <item t="data" sd="1" x="10"/>
-        <item t="data" sd="1" x="11"/>
-        <item t="data" sd="1" x="12"/>
-        <item t="data" sd="1" x="13"/>
-        <item t="data" sd="1" x="14"/>
-        <item t="data" sd="1" x="15"/>
-        <item t="data" sd="1" x="16"/>
-        <item t="data" sd="1" x="17"/>
-        <item t="data" sd="1" x="18"/>
-        <item t="data" sd="1" x="19"/>
-        <item t="data" sd="1" x="20"/>
-        <item t="data" sd="1" x="21"/>
-        <item t="data" sd="1" x="22"/>
-        <item t="data" sd="1" x="23"/>
-        <item t="data" sd="1" x="24"/>
-        <item t="data" sd="1" x="25"/>
-        <item t="data" sd="1" x="26"/>
-        <item t="data" sd="1" x="27"/>
-        <item t="data" sd="1" x="28"/>
-        <item t="data" sd="1" x="29"/>
-        <item t="data" sd="1" x="30"/>
-        <item t="data" sd="1" x="31"/>
-        <item t="data" sd="1" x="32"/>
-        <item t="data" sd="1" x="33"/>
-        <item t="data" sd="1" x="34"/>
-        <item t="data" sd="1" x="35"/>
-        <item t="data" sd="1" x="36"/>
-        <item t="data" sd="1" x="37"/>
-        <item t="data" sd="1" x="38"/>
-        <item t="data" sd="1" x="39"/>
-        <item t="data" sd="1" x="40"/>
-        <item t="data" sd="1" x="41"/>
-        <item t="data" sd="1" x="42"/>
-        <item t="data" sd="1" x="43"/>
-        <item t="data" sd="1" x="44"/>
-        <item t="data" sd="1" x="45"/>
-        <item t="data" sd="1" x="46"/>
-        <item t="data" sd="1" x="47"/>
-        <item t="data" sd="1" x="48"/>
-        <item t="data" sd="1" x="49"/>
-        <item t="data" sd="1" x="50"/>
-        <item t="data" sd="1" x="51"/>
-        <item t="data" sd="1" x="52"/>
-        <item t="data" sd="1" x="53"/>
-        <item t="data" sd="1" x="54"/>
-        <item t="data" sd="1" x="55"/>
-        <item t="data" sd="1" x="56"/>
-        <item t="data" sd="1" x="57"/>
-        <item t="data" sd="1" x="58"/>
-        <item t="data" sd="1" x="59"/>
-        <item t="data" sd="1" x="60"/>
-        <item t="data" sd="1" x="61"/>
-        <item t="data" sd="1" x="62"/>
-        <item t="data" sd="1" x="63"/>
-        <item t="data" sd="1" x="64"/>
-        <item t="data" sd="1" x="65"/>
-        <item t="data" sd="1" x="66"/>
-        <item t="data" sd="1" x="67"/>
-        <item t="data" sd="1" x="68"/>
-        <item t="data" sd="1" x="69"/>
-        <item t="data" sd="1" x="70"/>
-        <item t="data" sd="1" x="71"/>
-        <item t="data" sd="1" x="72"/>
-        <item t="data" sd="1" x="73"/>
-        <item t="data" sd="1" x="74"/>
-        <item t="data" sd="1" x="75"/>
-        <item t="data" sd="1" x="76"/>
-        <item t="data" sd="1" x="77"/>
-        <item t="data" sd="1" x="78"/>
-        <item t="data" sd="1" x="79"/>
-        <item t="data" sd="1" x="80"/>
-        <item t="data" sd="1" x="81"/>
-        <item t="data" sd="1" x="82"/>
-        <item t="data" sd="1" x="83"/>
-        <item t="data" sd="1" x="84"/>
-        <item t="data" sd="1" x="85"/>
-        <item t="data" sd="1" x="86"/>
-        <item t="data" sd="1" x="87"/>
-        <item t="data" sd="1" x="88"/>
-        <item t="data" sd="1" x="89"/>
-        <item t="data" sd="1" x="90"/>
-        <item t="data" sd="1" x="91"/>
-        <item t="data" sd="1" x="92"/>
-        <item t="data" sd="1" x="93"/>
-        <item t="data" sd="1" x="94"/>
-        <item t="data" sd="1" x="95"/>
-        <item t="data" sd="1" x="96"/>
-        <item t="data" sd="1" x="97"/>
-        <item t="data" sd="1" x="98"/>
-        <item t="data" sd="1" x="99"/>
-        <item t="data" sd="1" x="100"/>
-        <item t="data" sd="1" x="101"/>
-        <item t="data" sd="1" x="102"/>
-        <item t="data" sd="1" x="103"/>
-        <item t="data" sd="1" x="104"/>
-        <item t="data" sd="1" x="105"/>
-        <item t="data" sd="1" x="106"/>
-        <item t="data" sd="1" x="107"/>
-        <item t="data" sd="1" x="108"/>
-        <item t="data" sd="1" x="109"/>
-        <item t="data" sd="1" x="110"/>
-        <item t="data" sd="1" x="111"/>
-        <item t="data" sd="1" x="112"/>
-        <item t="data" sd="1" x="113"/>
-        <item t="data" sd="1" x="114"/>
-        <item t="data" sd="1" x="115"/>
-        <item t="data" sd="1" x="116"/>
-        <item t="data" sd="1" x="117"/>
-        <item t="data" sd="1" x="118"/>
-        <item t="data" sd="1" x="119"/>
-        <item t="data" sd="1" x="120"/>
-        <item t="data" sd="1" x="121"/>
-        <item t="data" sd="1" x="122"/>
-        <item t="data" sd="1" x="123"/>
-        <item t="data" sd="1" x="124"/>
-        <item t="data" sd="1" x="125"/>
-        <item t="data" sd="1" x="126"/>
-        <item t="data" sd="1" x="127"/>
-        <item t="data" sd="1" x="128"/>
-        <item t="data" sd="1" x="129"/>
-        <item t="data" sd="1" x="130"/>
-        <item t="data" sd="1" x="131"/>
-        <item t="data" sd="1" x="132"/>
-        <item t="data" sd="1" x="133"/>
-        <item t="data" sd="1" x="134"/>
-        <item t="data" sd="1" x="135"/>
-        <item t="data" sd="1" x="136"/>
-        <item t="data" sd="1" x="137"/>
-        <item t="data" sd="1" x="138"/>
-        <item t="data" sd="1" x="139"/>
-        <item t="data" sd="1" x="140"/>
-        <item t="data" sd="1" x="141"/>
-        <item t="data" sd="1" x="142"/>
-        <item t="data" sd="1" x="143"/>
-        <item t="data" sd="1" x="144"/>
-        <item t="data" sd="1" x="145"/>
-        <item t="data" sd="1" x="146"/>
-        <item t="data" sd="1" x="147"/>
-        <item t="data" sd="1" x="148"/>
-        <item t="data" sd="1" x="149"/>
-        <item t="data" sd="1" x="150"/>
-        <item t="data" sd="1" x="151"/>
-        <item t="data" sd="1" x="152"/>
-        <item t="data" sd="1" x="153"/>
-        <item t="data" sd="1" x="154"/>
-        <item t="data" sd="1" x="155"/>
-        <item t="data" sd="1" x="156"/>
-        <item t="data" sd="1" x="157"/>
-        <item t="data" sd="1" x="158"/>
-        <item t="data" sd="1" x="159"/>
-        <item t="data" sd="1" x="160"/>
-        <item t="data" sd="1" x="161"/>
-        <item t="data" sd="1" x="162"/>
-        <item t="data" sd="1" x="163"/>
-        <item t="data" sd="1" x="164"/>
-        <item t="data" sd="1" x="165"/>
-        <item t="data" sd="1" x="166"/>
-        <item t="data" sd="1" x="167"/>
-        <item t="data" sd="1" x="168"/>
-        <item t="data" sd="1" x="169"/>
-        <item t="data" sd="1" x="170"/>
-        <item t="data" sd="1" x="171"/>
-        <item t="data" sd="1" x="172"/>
-        <item t="data" sd="1" x="173"/>
-        <item t="data" sd="1" x="174"/>
-        <item t="data" sd="1" x="175"/>
-        <item t="data" sd="1" x="176"/>
-        <item t="data" sd="1" x="177"/>
-        <item t="data" sd="1" x="178"/>
-        <item t="data" sd="1" x="179"/>
-        <item t="data" sd="1" x="180"/>
-        <item t="data" sd="1" x="181"/>
-        <item t="data" sd="1" x="182"/>
-        <item t="data" sd="1" x="183"/>
-        <item t="data" sd="1" x="184"/>
-        <item t="data" sd="1" x="185"/>
-        <item t="data" sd="1" x="186"/>
-        <item t="data" sd="1" x="187"/>
-        <item t="data" sd="1" x="188"/>
-        <item t="data" sd="1" x="189"/>
-        <item t="data" sd="1" x="190"/>
-        <item t="data" sd="1" x="191"/>
-        <item t="data" sd="1" x="192"/>
-        <item t="data" sd="1" x="193"/>
-        <item t="data" sd="1" x="194"/>
-        <item t="data" sd="1" x="195"/>
-        <item t="data" sd="1" x="196"/>
-        <item t="data" sd="1" x="197"/>
-        <item t="data" sd="1" x="198"/>
-        <item t="data" sd="1" x="199"/>
-        <item t="data" sd="1" x="200"/>
-        <item t="data" sd="1" x="201"/>
-        <item t="data" sd="1" x="202"/>
-        <item t="data" sd="1" x="203"/>
-        <item t="data" sd="1" x="204"/>
-        <item t="data" sd="1" x="205"/>
-        <item t="data" sd="1" x="206"/>
-        <item t="data" sd="1" x="207"/>
-        <item t="data" sd="1" x="208"/>
-        <item t="data" sd="1" x="209"/>
-        <item t="data" sd="1" x="210"/>
-        <item t="data" sd="1" x="211"/>
-        <item t="data" sd="1" x="212"/>
-        <item t="data" sd="1" x="213"/>
-        <item t="data" sd="1" x="214"/>
-        <item t="data" sd="1" x="215"/>
-        <item t="data" sd="1" x="216"/>
-        <item t="data" sd="1" x="217"/>
-        <item t="data" sd="1" x="218"/>
-        <item t="data" sd="1" x="219"/>
-        <item t="data" sd="1" x="220"/>
-        <item t="data" sd="1" x="221"/>
-        <item t="data" sd="1" x="222"/>
-        <item t="data" sd="1" x="223"/>
-        <item t="data" sd="1" x="224"/>
-        <item t="data" sd="1" x="225"/>
-        <item t="data" sd="1" x="226"/>
-        <item t="data" sd="1" x="227"/>
-        <item t="data" sd="1" x="228"/>
-        <item t="data" sd="1" x="229"/>
-        <item t="data" sd="1" x="230"/>
-        <item t="data" sd="1" x="231"/>
-        <item t="data" sd="1" x="232"/>
-        <item t="data" sd="1" x="233"/>
-        <item t="data" sd="1" x="234"/>
-        <item t="data" sd="1" x="235"/>
-        <item t="data" sd="1" x="236"/>
-        <item t="data" sd="1" x="237"/>
-        <item t="data" sd="1" x="238"/>
-        <item t="data" sd="1" x="239"/>
-        <item t="data" sd="1" x="240"/>
-        <item t="data" sd="1" x="241"/>
-        <item t="data" sd="1" x="242"/>
-        <item t="data" sd="1" x="243"/>
-        <item t="data" sd="1" x="244"/>
-        <item t="data" sd="1" x="245"/>
-        <item t="data" sd="1" x="246"/>
-        <item t="data" sd="1" x="247"/>
-        <item t="data" sd="1" x="248"/>
-        <item t="data" sd="1" x="249"/>
-        <item t="data" sd="1" x="250"/>
-        <item t="data" sd="1" x="251"/>
-        <item t="data" sd="1" x="252"/>
-        <item t="data" sd="1" x="253"/>
-        <item t="data" sd="1" x="254"/>
-        <item t="data" sd="1" x="255"/>
-        <item t="data" sd="1" x="256"/>
-        <item t="data" sd="1" x="257"/>
-        <item t="data" sd="1" x="258"/>
-        <item t="data" sd="1" x="259"/>
-        <item t="data" sd="1" x="260"/>
-        <item t="data" sd="1" x="261"/>
-        <item t="data" sd="1" x="262"/>
-        <item t="data" sd="1" x="263"/>
-        <item t="data" sd="1" x="264"/>
-        <item t="data" sd="1" x="265"/>
-        <item t="data" sd="1" x="266"/>
-        <item t="data" sd="1" x="267"/>
-        <item t="data" sd="1" x="268"/>
-        <item t="data" sd="1" x="269"/>
-        <item t="data" sd="1" x="270"/>
-        <item t="data" sd="1" x="271"/>
-        <item t="data" sd="1" x="272"/>
-        <item t="data" sd="1" x="273"/>
-        <item t="data" sd="1" x="274"/>
-        <item t="data" sd="1" x="275"/>
-        <item t="data" sd="1" x="276"/>
-        <item t="data" sd="1" x="277"/>
-        <item t="data" sd="1" x="278"/>
-        <item t="data" sd="1" x="279"/>
-        <item t="data" sd="1" x="280"/>
-        <item t="data" sd="1" x="281"/>
-        <item t="data" sd="1" x="282"/>
-        <item t="data" sd="1" x="283"/>
-        <item t="data" sd="1" x="284"/>
-        <item t="data" sd="1" x="285"/>
-        <item t="data" sd="1" x="286"/>
-        <item t="data" sd="1" x="287"/>
-        <item t="data" sd="1" x="288"/>
-        <item t="data" sd="1" x="289"/>
-        <item t="data" sd="1" x="290"/>
-        <item t="data" sd="1" x="291"/>
-        <item t="data" sd="1" x="292"/>
-        <item t="data" sd="1" x="293"/>
-        <item t="data" sd="1" x="294"/>
-        <item t="data" sd="1" x="295"/>
-        <item t="data" sd="1" x="296"/>
-        <item t="data" sd="1" x="297"/>
-        <item t="data" sd="1" x="298"/>
-        <item t="data" sd="1" x="299"/>
-        <item t="data" sd="1" x="300"/>
-        <item t="data" sd="1" x="301"/>
-        <item t="data" sd="1" x="302"/>
-        <item t="data" sd="1" x="303"/>
-        <item t="data" sd="1" x="304"/>
-        <item t="data" sd="1" x="305"/>
-        <item t="data" sd="1" x="306"/>
-        <item t="data" sd="1" x="307"/>
-        <item t="data" sd="1" x="308"/>
-        <item t="data" sd="1" x="309"/>
-        <item t="data" sd="1" x="310"/>
-        <item t="data" sd="1" x="311"/>
-        <item t="data" sd="1" x="312"/>
-        <item t="data" sd="1" x="313"/>
-        <item t="data" sd="1" x="314"/>
-        <item t="data" sd="1" x="315"/>
-        <item t="data" sd="1" x="316"/>
-        <item t="data" sd="1" x="317"/>
-        <item t="data" sd="1" x="318"/>
-        <item t="data" sd="1" x="319"/>
-        <item t="data" sd="1" x="320"/>
-        <item t="data" sd="1" x="321"/>
-        <item t="data" sd="1" x="322"/>
-        <item t="data" sd="1" x="323"/>
-        <item t="data" sd="1" x="324"/>
-        <item t="data" sd="1" x="325"/>
-        <item t="data" sd="1" x="326"/>
-        <item t="data" sd="1" x="327"/>
-        <item t="data" sd="1" x="328"/>
-        <item t="data" sd="1" x="329"/>
-        <item t="data" sd="1" x="330"/>
-        <item t="data" sd="1" x="331"/>
-        <item t="data" sd="1" x="332"/>
-        <item t="data" sd="1" x="333"/>
-        <item t="data" sd="1" x="334"/>
-        <item t="data" sd="1" x="335"/>
-        <item t="data" sd="1" x="336"/>
-        <item t="data" sd="1" x="337"/>
-        <item t="data" sd="1" x="338"/>
-        <item t="data" sd="1" x="339"/>
-        <item t="data" sd="1" x="340"/>
-        <item t="data" sd="1" x="341"/>
-        <item t="data" sd="1" x="342"/>
-        <item t="data" sd="1" x="343"/>
-        <item t="data" sd="1" x="344"/>
-        <item t="data" sd="1" x="345"/>
-        <item t="data" sd="1" x="346"/>
-        <item t="data" sd="1" x="347"/>
-        <item t="data" sd="1" x="348"/>
-        <item t="data" sd="1" x="349"/>
-        <item t="data" sd="1" x="350"/>
-        <item t="data" sd="1" x="351"/>
-        <item t="data" sd="1" x="352"/>
-        <item t="data" sd="1" x="353"/>
-        <item t="data" sd="1" x="354"/>
-        <item t="data" sd="1" x="355"/>
-        <item t="data" sd="1" x="356"/>
-        <item t="data" sd="1" x="357"/>
-        <item t="data" sd="1" x="358"/>
-        <item t="data" sd="1" x="359"/>
-        <item t="data" sd="1" x="360"/>
-        <item t="data" sd="1" x="361"/>
-        <item t="data" sd="1" x="362"/>
-        <item t="data" sd="1" x="363"/>
-        <item t="data" sd="1" x="364"/>
-        <item t="data" sd="1" x="365"/>
-        <item t="data" sd="1" x="366"/>
-        <item t="data" sd="1" x="367"/>
-        <item t="default" sd="1"/>
-      </items>
-    </pivotField>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField axis="axisRow" dataField="1" showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1">
+    <pivotField axis="axisCol" dataField="1" showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1">
       <items count="5">
         <item t="data" sd="1" x="0"/>
+        <item t="data" sd="1" x="2"/>
         <item t="data" sd="1" x="1"/>
-        <item t="data" sd="1" x="2"/>
         <item t="data" h="1" sd="1" x="3"/>
         <item t="default" sd="1"/>
       </items>
     </pivotField>
     <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField axis="axisCol" showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="0">
-      <items count="14">
-        <item t="data" h="1" sd="0" x="0"/>
-        <item t="data" sd="0" x="1"/>
-        <item t="data" sd="0" x="2"/>
-        <item t="data" sd="0" x="3"/>
-        <item t="data" sd="0" x="4"/>
-        <item t="data" sd="0" x="5"/>
-        <item t="data" sd="0" x="6"/>
-        <item t="data" sd="0" x="7"/>
-        <item t="data" sd="0" x="8"/>
-        <item t="data" sd="0" x="9"/>
-        <item t="data" sd="0" x="10"/>
-        <item t="data" sd="0" x="11"/>
-        <item t="data" sd="0" x="12"/>
-        <item t="data" sd="0" x="13"/>
-      </items>
-    </pivotField>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="7"/>
+    <field x="4"/>
   </rowFields>
   <rowItems count="4">
     <i t="data" r="0" i="0">
@@ -8942,26 +8942,25 @@
       <x v="0"/>
     </i>
   </rowItems>
-  <colFields count="2">
-    <field x="16"/>
-    <field x="1"/>
+  <colFields count="1">
+    <field x="14"/>
   </colFields>
   <colItems count="4">
     <i t="data" r="0" i="0">
-      <x v="2"/>
+      <x v="0"/>
     </i>
     <i t="data" r="0" i="0">
-      <x v="3"/>
+      <x v="1"/>
     </i>
     <i t="data" r="0" i="0">
-      <x v="4"/>
+      <x v="2"/>
     </i>
     <i t="grand" r="0" i="0">
       <x v="0"/>
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Nombre de Classe d'affaire" fld="7" subtotal="count" showDataAs="normal" baseField="0" baseItem="0"/>
+    <dataField name="Nombre de Imputation de la NC" fld="14" subtotal="count" showDataAs="normal" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
 </pivotTableDefinition>
@@ -9493,118 +9492,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique3" cacheId="1" dataOnRows="0" dataCaption="Valeurs" showError="0" showMissing="1" updatedVersion="7" minRefreshableVersion="3" asteriskTotals="0" showItems="1" editData="0" disableFieldList="0" showCalcMbrs="1" visualTotals="1" showMultipleLabel="1" showDataDropDown="1" showDrill="1" printDrill="0" showMemberPropertyTips="1" showDataTips="1" enableWizard="1" enableDrill="1" enableFieldProperties="1" preserveFormatting="1" useAutoFormatting="1" pageWrap="0" pageOverThenDown="0" subtotalHiddenItems="0" rowGrandTotals="1" colGrandTotals="1" fieldPrintTitles="0" itemPrintTitles="1" mergeItem="0" showDropZones="1" createdVersion="7" indent="0" showEmptyRow="0" showEmptyCol="0" showHeaders="1" compact="1" outline="1" outlineData="1" compactData="1" published="0" gridDropZones="0" immersive="1" multipleFieldFilters="0" chartFormat="5" fieldListSortAscending="0" mdxSubqueries="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" r:id="rId1">
-  <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="14">
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField axis="axisPage" showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" multipleItemSelectionAllowed="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1">
-      <items count="8">
-        <item t="data" sd="1" x="0"/>
-        <item t="data" sd="1" x="1"/>
-        <item t="data" sd="1" x="2"/>
-        <item t="data" sd="1" x="4"/>
-        <item t="data" sd="1" x="3"/>
-        <item t="data" sd="1" x="5"/>
-        <item t="data" sd="1" x="6"/>
-        <item t="default" sd="1"/>
-      </items>
-    </pivotField>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField axis="axisRow" dataField="1" showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1">
-      <items count="5">
-        <item t="data" h="1" sd="1" x="3"/>
-        <item t="data" sd="1" x="0"/>
-        <item t="data" sd="1" x="1"/>
-        <item t="data" h="1" sd="1" x="2"/>
-        <item t="default" sd="1"/>
-      </items>
-    </pivotField>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="11"/>
-  </rowFields>
-  <rowItems count="3">
-    <i t="data" r="0" i="0">
-      <x v="1"/>
-    </i>
-    <i t="data" r="0" i="0">
-      <x v="2"/>
-    </i>
-    <i t="grand" r="0" i="0">
-      <x v="0"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i t="data" r="0" i="0"/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="9" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Nombre de Statut" fld="11" subtotal="count" showDataAs="normal" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="4">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" dataOnly="1" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="11" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" dataOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4" series="0">
-      <pivotArea type="data" dataOnly="1" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="11" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5" series="0">
-      <pivotArea type="data" dataOnly="1" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="11" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique1" cacheId="1" dataOnRows="0" dataCaption="Valeurs" showError="0" showMissing="1" updatedVersion="7" minRefreshableVersion="3" asteriskTotals="0" showItems="1" editData="0" disableFieldList="0" showCalcMbrs="1" visualTotals="1" showMultipleLabel="1" showDataDropDown="1" showDrill="1" printDrill="0" showMemberPropertyTips="1" showDataTips="1" enableWizard="1" enableDrill="1" enableFieldProperties="1" preserveFormatting="1" useAutoFormatting="1" pageWrap="0" pageOverThenDown="0" subtotalHiddenItems="0" rowGrandTotals="1" colGrandTotals="1" fieldPrintTitles="0" itemPrintTitles="1" mergeItem="0" showDropZones="1" createdVersion="7" indent="0" showEmptyRow="0" showEmptyCol="0" showHeaders="1" compact="1" outline="1" outlineData="1" compactData="1" published="0" gridDropZones="0" immersive="1" multipleFieldFilters="0" chartFormat="9" fieldListSortAscending="0" mdxSubqueries="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" r:id="rId1">
   <location ref="I3:N7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
@@ -9810,6 +9697,118 @@
           </reference>
           <reference field="12" selected="0">
             <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique3" cacheId="1" dataOnRows="0" dataCaption="Valeurs" showError="0" showMissing="1" updatedVersion="7" minRefreshableVersion="3" asteriskTotals="0" showItems="1" editData="0" disableFieldList="0" showCalcMbrs="1" visualTotals="1" showMultipleLabel="1" showDataDropDown="1" showDrill="1" printDrill="0" showMemberPropertyTips="1" showDataTips="1" enableWizard="1" enableDrill="1" enableFieldProperties="1" preserveFormatting="1" useAutoFormatting="1" pageWrap="0" pageOverThenDown="0" subtotalHiddenItems="0" rowGrandTotals="1" colGrandTotals="1" fieldPrintTitles="0" itemPrintTitles="1" mergeItem="0" showDropZones="1" createdVersion="7" indent="0" showEmptyRow="0" showEmptyCol="0" showHeaders="1" compact="1" outline="1" outlineData="1" compactData="1" published="0" gridDropZones="0" immersive="1" multipleFieldFilters="0" chartFormat="5" fieldListSortAscending="0" mdxSubqueries="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" r:id="rId1">
+  <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="14">
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField axis="axisPage" showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" multipleItemSelectionAllowed="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1">
+      <items count="8">
+        <item t="data" sd="1" x="0"/>
+        <item t="data" sd="1" x="1"/>
+        <item t="data" sd="1" x="2"/>
+        <item t="data" sd="1" x="4"/>
+        <item t="data" sd="1" x="3"/>
+        <item t="data" sd="1" x="5"/>
+        <item t="data" sd="1" x="6"/>
+        <item t="default" sd="1"/>
+      </items>
+    </pivotField>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField axis="axisRow" dataField="1" showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1">
+      <items count="5">
+        <item t="data" h="1" sd="1" x="3"/>
+        <item t="data" sd="1" x="0"/>
+        <item t="data" sd="1" x="1"/>
+        <item t="data" h="1" sd="1" x="2"/>
+        <item t="default" sd="1"/>
+      </items>
+    </pivotField>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="11"/>
+  </rowFields>
+  <rowItems count="3">
+    <i t="data" r="0" i="0">
+      <x v="1"/>
+    </i>
+    <i t="data" r="0" i="0">
+      <x v="2"/>
+    </i>
+    <i t="grand" r="0" i="0">
+      <x v="0"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i t="data" r="0" i="0"/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="9" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Nombre de Statut" fld="11" subtotal="count" showDataAs="normal" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" dataOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="11" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" dataOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="0">
+      <pivotArea type="data" dataOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="11" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="0">
+      <pivotArea type="data" dataOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="11" selected="0">
+            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
@@ -10177,7 +10176,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD13"/>
+      <selection activeCell="A12" sqref="A12:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -10196,8 +10195,8 @@
     <col width="18.88671875" customWidth="1" style="12" min="13" max="13"/>
     <col width="24.6640625" customWidth="1" style="13" min="14" max="14"/>
     <col width="20.5546875" customWidth="1" style="12" min="15" max="15"/>
-    <col width="11.5546875" customWidth="1" style="12" min="16" max="23"/>
-    <col width="11.5546875" customWidth="1" style="12" min="24" max="16384"/>
+    <col width="11.5546875" customWidth="1" style="12" min="16" max="30"/>
+    <col width="11.5546875" customWidth="1" style="12" min="31" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -10616,35 +10615,32 @@
     <row r="7" ht="72" customHeight="1" s="1">
       <c r="A7" s="12" t="inlineStr">
         <is>
-          <t>FNC-22-02-04</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>44643</v>
+          <t>FNC-22-03-02</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>10/05/2022</t>
+        </is>
       </c>
       <c r="C7" s="12" t="inlineStr">
         <is>
-          <t>CLESI Joffrey</t>
+          <t>WORLD hello</t>
         </is>
       </c>
       <c r="D7" s="12" t="inlineStr">
         <is>
-          <t>Interne</t>
-        </is>
-      </c>
-      <c r="E7" s="12" t="inlineStr">
-        <is>
-          <t>A Réception</t>
+          <t>Client</t>
         </is>
       </c>
       <c r="F7" s="12" t="inlineStr">
         <is>
-          <t>Pierre Puerta</t>
+          <t>lorem</t>
         </is>
       </c>
       <c r="G7" s="13" t="inlineStr">
         <is>
-          <t>Moyens Kawneer, Manque rail (à fournir par le client) pour test. Moyen SERMI Hydro ne peut pas faire</t>
+          <t>problème d'outillage</t>
         </is>
       </c>
       <c r="H7" s="12" t="inlineStr">
@@ -10659,7 +10655,7 @@
       </c>
       <c r="J7" s="12" t="inlineStr">
         <is>
-          <t>4-Occasionnel</t>
+          <t>5-Probable</t>
         </is>
       </c>
       <c r="K7" s="12" t="inlineStr">
@@ -10668,21 +10664,16 @@
         </is>
       </c>
       <c r="L7" s="12" t="n">
-        <v>32</v>
+        <v>157</v>
       </c>
       <c r="M7" s="12" t="inlineStr">
         <is>
-          <t>MFT</t>
+          <t xml:space="preserve">MFT + 5 Why + Ishikawa </t>
         </is>
       </c>
       <c r="N7" s="13" t="inlineStr">
         <is>
-          <t>MFT Qui prend la décision d’arrêt de ces outils SERMI car Hydro n’a pas récupérer la propriété intellectuelle de ces outillages</t>
-        </is>
-      </c>
-      <c r="O7" s="12" t="inlineStr">
-        <is>
-          <t>Interne</t>
+          <t>mft5whyishikawa</t>
         </is>
       </c>
       <c r="P7" s="12" t="inlineStr">
@@ -10694,7 +10685,7 @@
     <row r="8" ht="43.2" customHeight="1" s="1">
       <c r="A8" s="12" t="inlineStr">
         <is>
-          <t>FNC-22-02-07</t>
+          <t>FNC-22-03-02</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
@@ -10709,7 +10700,7 @@
       </c>
       <c r="D8" s="12" t="inlineStr">
         <is>
-          <t>Interne</t>
+          <t>Client</t>
         </is>
       </c>
       <c r="F8" s="12" t="inlineStr">
@@ -10753,11 +10744,6 @@
       <c r="N8" s="13" t="inlineStr">
         <is>
           <t>mft5whyishikawa</t>
-        </is>
-      </c>
-      <c r="O8" s="12" t="inlineStr">
-        <is>
-          <t>Interne</t>
         </is>
       </c>
       <c r="P8" s="12" t="inlineStr">
@@ -10769,35 +10755,32 @@
     <row r="9" ht="57.6" customHeight="1" s="1">
       <c r="A9" s="12" t="inlineStr">
         <is>
-          <t>FNC-22-02-06</t>
-        </is>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>44643</v>
+          <t>FNC-22-03-02</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>10/05/2022</t>
+        </is>
       </c>
       <c r="C9" s="12" t="inlineStr">
         <is>
-          <t>CLESI Joffrey</t>
+          <t>WORLD hello</t>
         </is>
       </c>
       <c r="D9" s="12" t="inlineStr">
         <is>
-          <t>Interne</t>
-        </is>
-      </c>
-      <c r="E9" s="12" t="inlineStr">
-        <is>
-          <t>A Réception</t>
+          <t>Client</t>
         </is>
       </c>
       <c r="F9" s="12" t="inlineStr">
         <is>
-          <t>Franck Galve</t>
+          <t>lorem</t>
         </is>
       </c>
       <c r="G9" s="13" t="inlineStr">
         <is>
-          <t>Noria 8  OF 5576 moyen recu sans plaque constructeur. Le SN indiqué dans la commande ne correspond pas à la réalité : SN=Tripod 10T et Réalité= Tripod 6T</t>
+          <t>problème d'outillage</t>
         </is>
       </c>
       <c r="H9" s="12" t="inlineStr">
@@ -10807,7 +10790,7 @@
       </c>
       <c r="I9" s="12" t="inlineStr">
         <is>
-          <t>2 - Très anodin</t>
+          <t>4-Marginale</t>
         </is>
       </c>
       <c r="J9" s="12" t="inlineStr">
@@ -10821,21 +10804,16 @@
         </is>
       </c>
       <c r="L9" s="12" t="n">
-        <v>20</v>
+        <v>157</v>
       </c>
       <c r="M9" s="12" t="inlineStr">
         <is>
-          <t>MFT</t>
+          <t xml:space="preserve">MFT + 5 Why + Ishikawa </t>
         </is>
       </c>
       <c r="N9" s="13" t="inlineStr">
         <is>
-          <t>Identique FNC-22-02-01</t>
-        </is>
-      </c>
-      <c r="O9" s="12" t="inlineStr">
-        <is>
-          <t>Client</t>
+          <t>mft5whyishikawa</t>
         </is>
       </c>
       <c r="P9" s="12" t="inlineStr">
@@ -10847,35 +10825,32 @@
     <row r="10" ht="72" customHeight="1" s="1">
       <c r="A10" s="12" t="inlineStr">
         <is>
-          <t>FNC-22-02-07</t>
-        </is>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>44663</v>
+          <t>FNC-22-03-02</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>10/05/2022</t>
+        </is>
       </c>
       <c r="C10" s="12" t="inlineStr">
         <is>
-          <t>CLESI Joffrey</t>
+          <t>WORLD hello</t>
         </is>
       </c>
       <c r="D10" s="12" t="inlineStr">
         <is>
-          <t>Interne</t>
-        </is>
-      </c>
-      <c r="E10" s="12" t="inlineStr">
-        <is>
-          <t>En Process</t>
+          <t>Client</t>
         </is>
       </c>
       <c r="F10" s="12" t="inlineStr">
         <is>
-          <t>Franck Galve</t>
+          <t>lorem</t>
         </is>
       </c>
       <c r="G10" s="13" t="inlineStr">
         <is>
-          <t>Dommage sur un écrou sur site (orléans). La pièce semble être tombée</t>
+          <t>problème d'outillage</t>
         </is>
       </c>
       <c r="H10" s="12" t="inlineStr">
@@ -10885,7 +10860,7 @@
       </c>
       <c r="I10" s="12" t="inlineStr">
         <is>
-          <t>8-Très Importante</t>
+          <t>4-Marginale</t>
         </is>
       </c>
       <c r="J10" s="12" t="inlineStr">
@@ -10899,21 +10874,16 @@
         </is>
       </c>
       <c r="L10" s="12" t="n">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="M10" s="12" t="inlineStr">
         <is>
-          <t>MFT + 5 Why</t>
+          <t xml:space="preserve">MFT + 5 Why + Ishikawa </t>
         </is>
       </c>
       <c r="N10" s="13" t="inlineStr">
         <is>
-          <t>L’ensemble du piston n’est pas assez bridé pour assurer le centrage et éviter son mouvement de rotation sur le tréteau</t>
-        </is>
-      </c>
-      <c r="O10" s="12" t="inlineStr">
-        <is>
-          <t>Interne</t>
+          <t>mft5whyishikawa</t>
         </is>
       </c>
       <c r="P10" s="12" t="inlineStr">
@@ -10928,7 +10898,7 @@
           <t>FNC-22-03-02</t>
         </is>
       </c>
-      <c r="B11" s="10" t="inlineStr">
+      <c r="B11" s="7" t="inlineStr">
         <is>
           <t>10/05/2022</t>
         </is>
@@ -10943,7 +10913,6 @@
           <t>Client</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>lorem</t>
@@ -10989,11 +10958,73 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="10" t="n"/>
-      <c r="G12" s="13" t="n"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>FNC-22-03-03</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>10/05/2022</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>WORLD hello</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Client</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>lorem</t>
+        </is>
+      </c>
+      <c r="G12" s="13" t="inlineStr">
+        <is>
+          <t>problème d'outillage</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>03-Services</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>4-Marginale</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>5-Probable</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>2-Quasi-permanante</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>157</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MFT + 5 Why + Ishikawa </t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>mft5whyishikawa</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="B13" s="10" t="n"/>
+      <c r="B13" s="7" t="n"/>
       <c r="G13" s="13" t="n"/>
     </row>
     <row r="14">
@@ -11053,8 +11084,8 @@
   </sheetPr>
   <dimension ref="A1:Q76"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -11072,8 +11103,8 @@
     <col width="11.5546875" customWidth="1" style="13" min="12" max="12"/>
     <col width="17.44140625" customWidth="1" style="13" min="13" max="13"/>
     <col width="23.6640625" customWidth="1" style="13" min="14" max="14"/>
-    <col width="11.5546875" customWidth="1" style="13" min="15" max="22"/>
-    <col width="11.5546875" customWidth="1" style="13" min="23" max="16384"/>
+    <col width="11.5546875" customWidth="1" style="13" min="15" max="29"/>
+    <col width="11.5546875" customWidth="1" style="13" min="30" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -12250,7 +12281,7 @@
         <v>44676</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" ht="43.2" customHeight="1" s="1">
       <c r="A21" t="inlineStr">
         <is>
           <t>I3</t>
@@ -12261,25 +12292,23 @@
           <t>FNC-22-03-02</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" s="14" t="inlineStr">
+      <c r="D21" s="8" t="inlineStr">
         <is>
           <t>Ask supplier to send to Hydro Systems France SAS the test and inspection report</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
           <t>Katharina Schüle</t>
         </is>
       </c>
-      <c r="G21" s="10" t="inlineStr">
+      <c r="G21" s="7" t="inlineStr">
         <is>
           <t>24/02/2022</t>
         </is>
       </c>
     </row>
-    <row r="22">
+    <row r="22" ht="57.6" customHeight="1" s="1">
       <c r="A22" t="inlineStr">
         <is>
           <t>I3</t>
@@ -12290,25 +12319,23 @@
           <t>FNC-22-03-02</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" s="14" t="inlineStr">
+      <c r="D22" s="8" t="inlineStr">
         <is>
           <t>Notify the supplier that this test and inspection report is required on each order, even if it is not specified in the order</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
           <t>P.Puerta</t>
         </is>
       </c>
-      <c r="G22" s="10" t="inlineStr">
+      <c r="G22" s="7" t="inlineStr">
         <is>
           <t>23/02/2022</t>
         </is>
       </c>
     </row>
-    <row r="23">
+    <row r="23" ht="43.2" customHeight="1" s="1">
       <c r="A23" t="inlineStr">
         <is>
           <t>I4</t>
@@ -12319,25 +12346,23 @@
           <t>FNC-22-03-02</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" s="14" t="inlineStr">
+      <c r="D23" s="8" t="inlineStr">
         <is>
           <t>Improve Purchase Order and add the requirement of test and inspection report</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
           <t>G.Ourmières</t>
         </is>
       </c>
-      <c r="G23" s="10" t="inlineStr">
+      <c r="G23" s="7" t="inlineStr">
         <is>
           <t>02/03/2022</t>
         </is>
       </c>
     </row>
-    <row r="24">
+    <row r="24" ht="28.8" customHeight="1" s="1">
       <c r="A24" t="inlineStr">
         <is>
           <t>C2</t>
@@ -12348,25 +12373,23 @@
           <t>FNC-22-03-02</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" s="14" t="inlineStr">
+      <c r="D24" s="8" t="inlineStr">
         <is>
           <t>Augmentation des Zone Quanrantaine et Incoming,+ Identification</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
           <t>P.Puerta</t>
         </is>
       </c>
-      <c r="G24" s="10" t="inlineStr">
+      <c r="G24" s="7" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
     </row>
-    <row r="25">
+    <row r="25" ht="28.8" customHeight="1" s="1">
       <c r="A25" t="inlineStr">
         <is>
           <t>C1</t>
@@ -12377,26 +12400,24 @@
           <t>FNC-22-03-02</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" s="14" t="inlineStr">
+      <c r="D25" s="8" t="inlineStr">
         <is>
           <t>Contacter B.Ourmières pour la communication de l’arrêt</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
           <t>F.Galve
 C.Auriol</t>
         </is>
       </c>
-      <c r="G25" s="10" t="inlineStr">
+      <c r="G25" s="7" t="inlineStr">
         <is>
           <t>14/04/2022</t>
         </is>
       </c>
     </row>
-    <row r="26">
+    <row r="26" ht="43.2" customHeight="1" s="1">
       <c r="A26" t="inlineStr">
         <is>
           <t>C6</t>
@@ -12407,25 +12428,23 @@
           <t>FNC-22-03-02</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" s="14" t="inlineStr">
+      <c r="D26" s="8" t="inlineStr">
         <is>
           <t>Demande l’accord au client pour prélever la pièce sur le set en attente de commissioning</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
           <t>C.Kowal</t>
         </is>
       </c>
-      <c r="G26" s="10" t="inlineStr">
+      <c r="G26" s="7" t="inlineStr">
         <is>
           <t>15/04/2022</t>
         </is>
       </c>
     </row>
-    <row r="27">
+    <row r="27" ht="28.8" customHeight="1" s="1">
       <c r="A27" t="inlineStr">
         <is>
           <t>C5</t>
@@ -12436,25 +12455,23 @@
           <t>FNC-22-03-02</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" s="14" t="inlineStr">
+      <c r="D27" s="8" t="inlineStr">
         <is>
           <t>Prélever la pièce sur le set en attente de commissioning</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
           <t>Quality Managment Department</t>
         </is>
       </c>
-      <c r="G27" s="10" t="inlineStr">
+      <c r="G27" s="7" t="inlineStr">
         <is>
           <t>16/04/2022</t>
         </is>
       </c>
     </row>
-    <row r="28">
+    <row r="28" ht="43.2" customHeight="1" s="1">
       <c r="A28" t="inlineStr">
         <is>
           <t>P1</t>
@@ -12465,44 +12482,97 @@
           <t>FNC-22-03-02</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" s="14" t="inlineStr">
+      <c r="D28" s="8" t="inlineStr">
         <is>
           <t>Pour assurer le centrage : -Modification / amélioration du tréteau -Ou mise en place de butée de centrage sur tréteau</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
           <t>N.HAAS</t>
         </is>
       </c>
-      <c r="G28" s="10" t="inlineStr">
+      <c r="G28" s="7" t="inlineStr">
         <is>
           <t>17/04/2022</t>
         </is>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>I3</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>FNC-22-03-03</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Ask supplier to send to Hydro Systems France SAS the test and inspection report</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Katharina Schüle</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>24/02/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>FNC-22-03-03</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Augmentation des Zone Quanrantaine et Incoming,+ Identification</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>P.Puerta</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>13/04/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="31"/>
     <row r="34">
-      <c r="G34" s="10" t="n"/>
+      <c r="G34" s="7" t="n"/>
     </row>
     <row r="41">
-      <c r="G41" s="10" t="n"/>
+      <c r="G41" s="7" t="n"/>
     </row>
     <row r="48">
-      <c r="G48" s="10" t="n"/>
+      <c r="G48" s="7" t="n"/>
     </row>
     <row r="55">
-      <c r="G55" s="10" t="n"/>
+      <c r="G55" s="7" t="n"/>
     </row>
     <row r="62">
-      <c r="G62" s="10" t="n"/>
+      <c r="G62" s="7" t="n"/>
     </row>
     <row r="69">
-      <c r="G69" s="10" t="n"/>
+      <c r="G69" s="7" t="n"/>
     </row>
     <row r="76">
-      <c r="G76" s="10" t="n"/>
+      <c r="G76" s="7" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/FR 1005-Monitoring NC & Action Plan-V001.xlsx
+++ b/FR 1005-Monitoring NC & Action Plan-V001.xlsx
@@ -10958,14 +10958,9 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>FNC-22-03-03</t>
-        </is>
-      </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>10/05/2022</t>
+          <t>01/01/1970</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -11018,6 +11013,14 @@
         </is>
       </c>
       <c r="N12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">mft
+5why
+ishikawa
+</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
         <is>
           <t>mft5whyishikawa</t>
         </is>
